--- a/Project/Результаты.xlsx
+++ b/Project/Результаты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ACS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ACS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29596E-D2D2-4F2A-8DC6-E068E0B8930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B0F41-D1BD-4166-9AAD-39DF549C906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -59,14 +59,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -149,13 +149,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -234,7 +234,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -768,14 +768,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -796,7 +795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -810,6 +809,8 @@
         <c:axId val="1043797727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="270000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -833,8 +834,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -855,13 +860,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -878,7 +888,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -892,7 +902,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -955,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1482,14 +1492,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1510,7 +1519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -1524,6 +1533,8 @@
         <c:axId val="1043797727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1700000000.0000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1547,8 +1558,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1569,7 +1585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -1611,7 +1627,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1641,7 +1657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1655,7 +1671,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1717,7 +1733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2080,14 +2096,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2108,7 +2123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976803295"/>
@@ -2122,6 +2137,8 @@
         <c:axId val="976803295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1680000000.0000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2145,8 +2162,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2167,7 +2188,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976790815"/>
@@ -2209,7 +2230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2239,7 +2260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2253,7 +2274,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2352,7 +2373,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2538,14 +2559,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2566,7 +2586,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -2580,6 +2600,8 @@
         <c:axId val="1043797727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2597,14 +2619,18 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2625,7 +2651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -2667,7 +2693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2697,7 +2723,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2711,7 +2737,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2774,13 +2800,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0674371920548072E-2"/>
+          <c:y val="0.10504255508831067"/>
+          <c:w val="0.89282550595256371"/>
+          <c:h val="0.73683086343388404"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4597,14 +4633,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4625,7 +4660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957226943"/>
@@ -4639,6 +4674,8 @@
         <c:axId val="957226943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7500000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4662,8 +4699,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4684,12 +4725,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957224447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="500000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4726,7 +4768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4756,7 +4798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4770,7 +4812,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4833,7 +4875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6684,7 +6726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -6743,7 +6785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -6785,7 +6827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6815,7 +6857,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6829,7 +6871,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6896,7 +6938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8121,7 +8163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132622959"/>
@@ -8180,7 +8222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132640847"/>
@@ -8222,7 +8264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8252,7 +8294,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8266,7 +8308,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8332,7 +8374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8988,7 +9030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -9047,7 +9089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="be-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -9089,7 +9131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="be-BY"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9119,7 +9161,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="be-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13115,15 +13157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>579344</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:colOff>602204</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13152,14 +13194,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>541804</xdr:colOff>
+      <xdr:colOff>534184</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
@@ -13358,61 +13400,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E98B50-21F7-40CC-802A-94A718C143A0}" name="cpu" displayName="cpu" ref="A2:D20" tableType="queryTable" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E98B50-21F7-40CC-802A-94A718C143A0}" name="cpu" displayName="cpu" ref="A2:D20" tableType="queryTable" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="A2:D20" xr:uid="{A4E98B50-21F7-40CC-802A-94A718C143A0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A9CB3CE-4BD2-4DD8-900B-A87C5C9ECADF}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7C88612D-60E5-421B-8413-E629D03D6212}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{267108B6-B37F-4F48-84AA-265C2AAA5D55}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E4FEBB31-ACB8-4A69-A48F-FB42B43CDC08}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{7A9CB3CE-4BD2-4DD8-900B-A87C5C9ECADF}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7C88612D-60E5-421B-8413-E629D03D6212}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{267108B6-B37F-4F48-84AA-265C2AAA5D55}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E4FEBB31-ACB8-4A69-A48F-FB42B43CDC08}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{000C36D5-578B-47C2-8099-8B1F2E1EE67F}" name="cpu_onethread" displayName="cpu_onethread" ref="E2:H20" tableType="queryTable" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{000C36D5-578B-47C2-8099-8B1F2E1EE67F}" name="cpu_onethread" displayName="cpu_onethread" ref="E2:H20" tableType="queryTable" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="E2:H20" xr:uid="{000C36D5-578B-47C2-8099-8B1F2E1EE67F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0A9492E3-56F9-4FC7-85B3-496885C172E0}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D4D7C281-AA46-4C87-8DE6-3311B0FB41AB}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AA5150D0-0907-4FEA-A12E-3961D710CA1B}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6895D179-C01C-4173-B901-1588B9AFEBAE}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{0A9492E3-56F9-4FC7-85B3-496885C172E0}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D4D7C281-AA46-4C87-8DE6-3311B0FB41AB}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AA5150D0-0907-4FEA-A12E-3961D710CA1B}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{6895D179-C01C-4173-B901-1588B9AFEBAE}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53F50D60-B981-4B2C-9667-2ACCFC853594}" name="gpu" displayName="gpu" ref="I2:L92" tableType="queryTable" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53F50D60-B981-4B2C-9667-2ACCFC853594}" name="gpu" displayName="gpu" ref="I2:L92" tableType="queryTable" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="I2:L92" xr:uid="{53F50D60-B981-4B2C-9667-2ACCFC853594}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7B7C5FD7-D22E-4221-82AE-7CB773CEB195}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E9A545BB-EDD4-45C4-8F67-5630CEEDE0F3}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{39746A8B-7576-42FD-8DDD-FCE44255AD8D}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{61F908B6-0A35-4BE5-896B-3585B1D1DA3A}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7B7C5FD7-D22E-4221-82AE-7CB773CEB195}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E9A545BB-EDD4-45C4-8F67-5630CEEDE0F3}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{39746A8B-7576-42FD-8DDD-FCE44255AD8D}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{61F908B6-0A35-4BE5-896B-3585B1D1DA3A}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D36AFA1E-5FBE-46FE-B258-CC87807CDEAD}" name="gpu_onethread" displayName="gpu_onethread" ref="M2:P92" tableType="queryTable" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D36AFA1E-5FBE-46FE-B258-CC87807CDEAD}" name="gpu_onethread" displayName="gpu_onethread" ref="M2:P92" tableType="queryTable" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="M2:P92" xr:uid="{D36AFA1E-5FBE-46FE-B258-CC87807CDEAD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C817794C-B722-48E7-AA5B-AFDFAAA64188}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{52DDD699-1800-4B28-90A0-834FA022E513}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{18500A12-1953-4875-B777-A144B0D5A720}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8E5EC51B-E35B-4610-B9BC-3B7E2200CB7B}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C817794C-B722-48E7-AA5B-AFDFAAA64188}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{52DDD699-1800-4B28-90A0-834FA022E513}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{18500A12-1953-4875-B777-A144B0D5A720}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8E5EC51B-E35B-4610-B9BC-3B7E2200CB7B}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13450,7 +13492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13556,7 +13598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13708,57 +13750,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C748B-0114-48AC-B243-B48FA908BAD5}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F3" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13808,3351 +13850,3351 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>137900</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>86300</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>963400</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>148700</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>97300</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1701600</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>1000</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>132111100</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>898700</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>5247500</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>1000</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>119466200</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>880200</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>140643100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>150</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>357500</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>401800</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2187600</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>150</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>281000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>192200</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>5479100</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1100</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1961800</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1001300</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>8063900</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>1100</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>1717900</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>884500</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>168118200</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>200</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>539400</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1211700</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2650600</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>200</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>305100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>341700</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>13145900</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1200</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1704700</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>1193000</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>8941000</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>1200</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>1578500</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>794100</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>173232000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>250</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>712400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1507300</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5141900</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>250</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>459900</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>535400</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>26045400</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>1300</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>1929200</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>1403400</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>13257300</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>1300</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>1681000</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>941900</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>224548700</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>300</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>849300</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2155000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8598000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>300</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>583700</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>929400</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>44564000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>2046700</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>1635700</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>14371800</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>1824700</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>1104700</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>279120600</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>350</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1331000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2694400</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>12751100</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>350</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>839300</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1039300</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>68011500</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1500</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>2364000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>1878200</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>19800800</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>1500</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>1989100</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>1315700</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>344344800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>400</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1676100</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>3442100</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>33689100</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>400</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1226100</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>1368000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>103548700</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>1600</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>2399400</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>2145600</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>25107200</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>1600</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>2030600</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>1453400</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>414731700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>450</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1666500</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>5167700</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>32477100</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>450</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1042300</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>1695400</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>149417800</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1700</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>2709900</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>2345500</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>28347500</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>1700</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>2154600</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>1639700</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>508708700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>500</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2606200</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>6478800</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>35306200</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>500</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1677100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>2214900</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>205322000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>1800</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>2345800</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>1949000</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>21694600</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1800</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>2384500</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>1859900</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>595311300</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>550</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3413200</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>7829300</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>51384600</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>550</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>5089000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>3246000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>272656100</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1900</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>2416000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>2060200</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>27338300</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>1900</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>2440500</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>2097200</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>697395300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>600</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2931300</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>9260900</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>61892400</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>600</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>2628600</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>3303400</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>348177900</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2000</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>2657500</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>2334500</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>28970000</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>2000</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>2851600</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>2291600</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>816171500</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>650</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3329200</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>9139100</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>93200200</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>650</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>3681600</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>3764200</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>443534000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2100</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2959700</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>2565700</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>37838300</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>2100</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>2964800</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>2566000</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>944928500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>700</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>4291400</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>11143200</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>97012700</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>700</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>3266100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>4245700</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>547003300</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>2200</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>3163800</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>2848500</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>38752800</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>2200</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>3067900</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>2782600</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>1086303600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>750</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>5341700</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>13547300</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>112300100</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>750</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>3463400</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>4773400</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>672982000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>2300</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>3338800</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>3127700</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>49480800</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>2300</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>3590700</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <v>3103100</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>1249159500</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>800</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>5964600</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>16813200</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>149828700</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>800</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>3983500</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>5513500</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>827314100</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2400</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>3451600</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>3417500</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>59948500</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>2400</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>3381600</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>3387800</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>1400790400</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>850</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>6951300</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>18452000</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>179236800</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>850</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>4629400</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>6145000</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>992071900</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>2500</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>4066700</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>4891100</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>64357300</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>2500</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>3683500</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="1">
         <v>3728000</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <v>1602411000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>900</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>8187900</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>20508200</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>215072600</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>900</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>4892200</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>6898700</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>1176710400</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>2600</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>4073700</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>4108000</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>65498900</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>2600</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>3883700</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <v>4039000</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <v>1784458800</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>950</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>7627800</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>21676600</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>230015500</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>950</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>5126300</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>7722700</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>1378868100</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>2700</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>4167000</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>4472700</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>81764300</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>2700</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>4182300</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <v>4293400</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>2025415700</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <v>2800</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>4370400</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>4818100</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>79134700</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>2800</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>4320300</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>4719200</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>2251635600</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>2900</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>4892400</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>5174000</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>100843600</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>2900</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>4902600</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <v>5132000</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>2512178200</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>3000</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>5082600</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>5561700</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>103044100</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>3000</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>5171800</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>5343600</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <v>2773041600</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>3100</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>6494200</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>6230200</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>126743600</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>3100</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>5317500</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>5809200</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="1">
         <v>3078543900</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>3200</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>5663300</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>6295100</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>146396500</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>3200</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>5478400</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>6225700</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>3353156200</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>3300</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>5786500</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>7109900</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>155252500</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>3300</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>5844500</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>6817800</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>3725707300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>3400</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>6524300</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>7158500</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>147318800</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>3400</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>6616700</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>7009000</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>4043549200</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <v>3500</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>6499900</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>8236100</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>178595400</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>3500</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>6527300</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>7475600</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>4448220900</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <v>3600</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>6630900</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>8166600</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>173224700</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>3600</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>6711900</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>7947000</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>4827796200</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>3700</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>7062100</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>8646100</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>212651700</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>3700</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>7206100</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>8541400</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>5251943000</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <v>3800</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>7300500</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>8962300</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>206495600</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>3800</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>7326100</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>8908100</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>5701122700</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>3900</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>7738000</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>9578500</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>247544000</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>3900</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>7823900</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>9371800</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>6161491900</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <v>4000</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>8208500</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>10178200</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>275795400</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>4000</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>8091200</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>9944400</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>6661578500</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
         <v>4100</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>8514900</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>10253000</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>282357700</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>4100</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>8678500</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>10385000</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>7202064100</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <v>4200</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>9444800</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>11962000</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>283440500</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>4200</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>8792100</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>10783200</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <v>7731379200</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <v>4300</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>9246000</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>12010000</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>335090400</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>4300</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>9190100</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1">
         <v>11395700</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="1">
         <v>8506093400</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <v>4400</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>9264800</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>12760500</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>315857800</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>4400</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>9384500</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>12167000</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>9068190300</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>4500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>9519700</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>12998900</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>388290300</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>4500</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>9571600</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>12328600</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>9585589000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>4600</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>9861500</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>13476600</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>365404000</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>4600</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>9773300</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>13003000</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>10360648000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>4700</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>10133800</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>13874900</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>447854900</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>4700</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>10447300</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>14180900</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>11334815500</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
         <v>4800</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>10956300</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>14490200</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>477856100</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>4800</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>10838700</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>14498000</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>12701376800</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
         <v>4900</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>10619500</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>14543600</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>505490200</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>4900</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>13642900</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>18105200</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <v>14466110300</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
         <v>5000</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>11323900</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>16086200</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>472983700</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>5000</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>13134900</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>17915600</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>15380393600</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
         <v>5100</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>11422900</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>17044400</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>577324500</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>5100</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>11623800</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>20185000</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <v>16385063300</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <v>5200</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>11954500</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>17477700</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>518895100</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>5200</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>16318500</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>21089500</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1">
         <v>17142163900</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
         <v>5300</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>12529300</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>17462800</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>645726500</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>5300</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>16521700</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>22174300</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1">
         <v>16341851900</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
         <v>5400</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>12972300</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>18807100</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>593939400</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>5400</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>12654000</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <v>18039500</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <v>16659170600</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
         <v>5500</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>13112500</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>18749800</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>723222400</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>5500</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>12678000</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <v>19280800</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1">
         <v>17564860500</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
         <v>5600</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>13582800</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>19939300</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>788535000</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>5600</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>13798900</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>19229700</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <v>18470048300</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
         <v>5700</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>16766700</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>21811100</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>897393700</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>5700</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>13662400</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>20638200</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <v>19543531500</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
         <v>5800</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>15756400</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>23627200</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>809485700</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>5800</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>14384100</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>20383500</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>20625155500</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <v>5900</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>15597000</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>22332100</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>979408200</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>5900</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>14614500</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>21491100</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>22641881900</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1">
         <v>6000</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>16122900</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>27042800</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>910401100</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>6000</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>15335300</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>22993400</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>23939205800</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1">
         <v>6100</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>16599000</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>26458400</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>1021531100</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>6100</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>15671900</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>24096500</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>25493815900</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
         <v>6200</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>16860900</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>24987300</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>983189900</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>6200</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <v>16989300</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <v>25414900</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="1">
         <v>26487990800</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
         <v>6300</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>17841100</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>26115900</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <v>1151335000</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>6300</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="1">
         <v>16745700</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="1">
         <v>25713000</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P56" s="1">
         <v>27947514800</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
         <v>6400</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>18093000</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>26868100</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <v>1204246500</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <v>6400</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="1">
         <v>17801300</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="1">
         <v>25842700</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="1">
         <v>28548803100</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
         <v>6500</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>16876300</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>27316700</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>1266512900</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <v>6500</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="1">
         <v>17443800</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="1">
         <v>26512200</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P58" s="1">
         <v>29787080900</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1">
         <v>6600</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>26288000</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>28694500</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>1198607300</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <v>6600</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="1">
         <v>17710600</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="1">
         <v>26323400</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P59" s="1">
         <v>30536336000</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
         <v>6700</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>18358000</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>27655300</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>1425689500</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <v>6700</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="1">
         <v>18405200</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="1">
         <v>27991200</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P60" s="1">
         <v>33256035700</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
         <v>6800</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>22580200</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>35601300</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <v>1347175000</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <v>6800</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="1">
         <v>21973300</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="1">
         <v>28365000</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P61" s="1">
         <v>37139973200</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
         <v>6900</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>21484300</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <v>36729400</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>1565566900</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <v>6900</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="1">
         <v>19378800</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="1">
         <v>29909100</v>
       </c>
-      <c r="P62" s="2">
+      <c r="P62" s="1">
         <v>35034341400</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
         <v>7000</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>19663800</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>29817200</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>1337566900</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>7000</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="1">
         <v>19246200</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="1">
         <v>30531700</v>
       </c>
-      <c r="P63" s="2">
+      <c r="P63" s="1">
         <v>36435136600</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
         <v>7100</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>25901100</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>32617300</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <v>1646654500</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <v>7100</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="1">
         <v>22155900</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="1">
         <v>30398300</v>
       </c>
-      <c r="P64" s="2">
+      <c r="P64" s="1">
         <v>37855296800</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1">
         <v>7200</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>20748200</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>32218600</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1">
         <v>1649000000</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <v>7200</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="1">
         <v>20521600</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="1">
         <v>31434600</v>
       </c>
-      <c r="P65" s="2">
+      <c r="P65" s="1">
         <v>39873492200</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
         <v>7300</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>21592600</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>33740500</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1">
         <v>1763382100</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <v>7300</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="1">
         <v>21607100</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="1">
         <v>33763500</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P66" s="1">
         <v>41736325100</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1">
         <v>7400</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>24145100</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>33482200</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <v>1579688600</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <v>7400</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="1">
         <v>20872500</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="1">
         <v>33516400</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P67" s="1">
         <v>42850065400</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1">
         <v>7500</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>22862400</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>34861000</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <v>1911413600</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <v>7500</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="1">
         <v>21594300</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="1">
         <v>35131000</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="1">
         <v>44604031400</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1">
         <v>7600</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>23115700</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>35590900</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <v>1687464100</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <v>7600</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="1">
         <v>24520800</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="1">
         <v>35829100</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P69" s="1">
         <v>46362037400</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1">
         <v>7700</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>23248600</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>36233200</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <v>2069583400</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <v>7700</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="1">
         <v>23273900</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O70" s="1">
         <v>37169700</v>
       </c>
-      <c r="P70" s="2">
+      <c r="P70" s="1">
         <v>48209465500</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
         <v>7800</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <v>23848700</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>37101600</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>1848408900</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>7800</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="1">
         <v>23349500</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="1">
         <v>37284000</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="1">
         <v>50116946200</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1">
         <v>7900</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <v>24943100</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>39208400</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>2241345600</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>7900</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="1">
         <v>23846400</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="1">
         <v>39394600</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="1">
         <v>52004854300</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
         <v>8000</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <v>24932000</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <v>39828500</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>2275243500</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>8000</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="1">
         <v>24417800</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="1">
         <v>40104100</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="1">
         <v>53903979000</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
         <v>8100</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <v>24703400</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <v>40807700</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>2393782700</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <v>8100</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="1">
         <v>24990200</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="1">
         <v>40635000</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P74" s="1">
         <v>56035315100</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1">
         <v>8200</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <v>26148600</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>42670400</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>2154339300</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <v>8200</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="1">
         <v>25138800</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="1">
         <v>42220000</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="1">
         <v>58168480300</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
         <v>8300</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <v>27003200</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <v>43313000</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <v>2609429900</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <v>8300</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="1">
         <v>26345400</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="1">
         <v>43512300</v>
       </c>
-      <c r="P76" s="2">
+      <c r="P76" s="1">
         <v>63611891100</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
         <v>8400</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <v>26910300</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <v>44358200</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <v>2301537500</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <v>8400</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="1">
         <v>26462600</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="1">
         <v>46593600</v>
       </c>
-      <c r="P77" s="2">
+      <c r="P77" s="1">
         <v>65530476600</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1">
         <v>8500</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <v>28007600</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <v>45856700</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <v>2804816900</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <v>8500</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="1">
         <v>27458300</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="1">
         <v>47677800</v>
       </c>
-      <c r="P78" s="2">
+      <c r="P78" s="1">
         <v>68286381600</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
         <v>8600</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>28623300</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <v>46417900</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="1">
         <v>2570899900</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <v>8600</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="1">
         <v>28189300</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="1">
         <v>50390200</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="1">
         <v>70650280700</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1">
         <v>8700</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>28420100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>47927600</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="1">
         <v>3069352100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <v>8700</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="1">
         <v>33959500</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="1">
         <v>64880000</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="1">
         <v>71860617100</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1">
         <v>8800</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>28863100</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>49736300</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="1">
         <v>3048401100</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="1">
         <v>8800</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="1">
         <v>28749500</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="1">
         <v>50851200</v>
       </c>
-      <c r="P81" s="2">
+      <c r="P81" s="1">
         <v>75861896800</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1">
         <v>8900</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <v>29590500</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>50246000</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="1">
         <v>3233889000</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="1">
         <v>8900</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="1">
         <v>32267800</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="1">
         <v>55950300</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P82" s="1">
         <v>75057491100</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
         <v>9000</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <v>30863800</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>52054100</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="1">
         <v>2940369000</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <v>9000</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="1">
         <v>30018100</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="1">
         <v>52159100</v>
       </c>
-      <c r="P83" s="2">
+      <c r="P83" s="1">
         <v>77066993500</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1">
         <v>9100</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <v>32282300</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>53609000</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="1">
         <v>3488821400</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="1">
         <v>9100</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="1">
         <v>30766200</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="1">
         <v>53146800</v>
       </c>
-      <c r="P84" s="2">
+      <c r="P84" s="1">
         <v>79569439400</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1">
         <v>9200</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <v>31491700</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <v>54586800</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="1">
         <v>4578312600</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="1">
         <v>9200</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="1">
         <v>30997600</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="1">
         <v>54373700</v>
       </c>
-      <c r="P85" s="2">
+      <c r="P85" s="1">
         <v>82662958400</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1">
         <v>9300</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="1">
         <v>31579400</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>56375700</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="1">
         <v>3737791600</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="1">
         <v>9300</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86" s="1">
         <v>32064200</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86" s="1">
         <v>59823300</v>
       </c>
-      <c r="P86" s="2">
+      <c r="P86" s="1">
         <v>85117511500</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1">
         <v>9400</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="1">
         <v>33148100</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="1">
         <v>59004900</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="1">
         <v>3369669300</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="1">
         <v>9400</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87" s="1">
         <v>31874200</v>
       </c>
-      <c r="O87" s="2">
+      <c r="O87" s="1">
         <v>56500900</v>
       </c>
-      <c r="P87" s="2">
+      <c r="P87" s="1">
         <v>87946582200</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1">
         <v>9500</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="1">
         <v>33325100</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>57513600</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="1">
         <v>4032718000</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="1">
         <v>9500</v>
       </c>
-      <c r="N88" s="2">
+      <c r="N88" s="1">
         <v>36845600</v>
       </c>
-      <c r="O88" s="2">
+      <c r="O88" s="1">
         <v>58477500</v>
       </c>
-      <c r="P88" s="2">
+      <c r="P88" s="1">
         <v>90787163800</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1">
         <v>9600</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="1">
         <v>35782900</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>59870200</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89" s="1">
         <v>3960338000</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="1">
         <v>9600</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="1">
         <v>33231200</v>
       </c>
-      <c r="O89" s="2">
+      <c r="O89" s="1">
         <v>59668400</v>
       </c>
-      <c r="P89" s="2">
+      <c r="P89" s="1">
         <v>93451631300</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1">
         <v>9700</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>34255600</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>61603800</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="1">
         <v>4327193300</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="1">
         <v>9700</v>
       </c>
-      <c r="N90" s="2">
+      <c r="N90" s="1">
         <v>34050200</v>
       </c>
-      <c r="O90" s="2">
+      <c r="O90" s="1">
         <v>60484300</v>
       </c>
-      <c r="P90" s="2">
+      <c r="P90" s="1">
         <v>96065871600</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1">
         <v>9800</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="1">
         <v>35602200</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>62543900</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="1">
         <v>5883767300</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="1">
         <v>9800</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91" s="1">
         <v>34074900</v>
       </c>
-      <c r="O91" s="2">
+      <c r="O91" s="1">
         <v>63152200</v>
       </c>
-      <c r="P91" s="2">
+      <c r="P91" s="1">
         <v>102550774000</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1">
         <v>9900</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="1">
         <v>35092500</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>64213500</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>4603283500</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>9900</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="1">
         <v>35379200</v>
       </c>
-      <c r="O92" s="2">
+      <c r="O92" s="1">
         <v>65566500</v>
       </c>
-      <c r="P92" s="2">
+      <c r="P92" s="1">
         <v>107694939900</v>
       </c>
     </row>
@@ -17178,11 +17220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05425C90-03A9-45DD-8249-DF023E7A352F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
+    <sheetView tabSelected="1" topLeftCell="U18" zoomScale="347" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17193,17 +17235,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6865BE7-0442-4D71-A95A-8F7ABA10D8EC}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -17211,7 +17253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A19">cpu_onethread[calculation_time]/cpu[calculation_time]</f>
         <v>1.766244550550135</v>
@@ -17221,7 +17263,7 @@
         <v>26.80192472606003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.5046169317974036</v>
       </c>
@@ -17229,7 +17271,7 @@
         <v>20.848249606269921</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.9595940541764127</v>
       </c>
@@ -17237,7 +17279,7 @@
         <v>19.375013980539091</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.065326046792042</v>
       </c>
@@ -17245,7 +17287,7 @@
         <v>16.937739962134071</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.1830658292626195</v>
       </c>
@@ -17253,7 +17295,7 @@
         <v>19.42140859182566</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.3337751252833092</v>
       </c>
@@ -17261,7 +17303,7 @@
         <v>17.390448870752696</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.0736558708899913</v>
       </c>
@@ -17269,7 +17311,7 @@
         <v>16.518436942391027</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4.6007125020398991</v>
       </c>
@@ -17277,7 +17319,7 @@
         <v>17.945451979892407</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.8154658388611633</v>
       </c>
@@ -17285,7 +17327,7 @@
         <v>27.440528979561734</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.3061831755039446</v>
       </c>
@@ -17293,7 +17335,7 @@
         <v>25.50982687292187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.6255356069565892</v>
       </c>
@@ -17301,7 +17343,7 @@
         <v>28.172989299275113</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.7589382855401601</v>
       </c>
@@ -17309,7 +17351,7 @@
         <v>24.972805332163443</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.6384710455435219</v>
       </c>
@@ -17317,7 +17359,7 @@
         <v>28.031615780021056</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.9927106031072102</v>
       </c>
@@ -17325,7 +17367,7 @@
         <v>25.245337585487704</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.5217331525935949</v>
       </c>
@@ -17333,7 +17375,7 @@
         <v>23.366562966546287</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5349788659471715</v>
       </c>
@@ -17341,7 +17383,7 @@
         <v>24.898667284053246</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.4712241354779731</v>
       </c>
@@ -17349,7 +17391,7 @@
         <v>27.24410333608656</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5.9946747067045481</v>
       </c>
@@ -17357,362 +17399,362 @@
         <v>24.771394116992379</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>28.453201945543483</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>24.911627510322916</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>26.911211801549044</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>24.289541247053105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22.9046199874997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23.997728216936924</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>27.447611574354394</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24.906693565455772</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>27.870137457302569</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>24.697394848007328</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>27.608930650338312</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>24.890491791358304</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>24.154059494828413</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>25.506880456952299</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>27.276903618219698</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>25.384473562954952</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>28.709724122690655</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>24.686655834565016</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>28.353953432365273</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>25.30912467408529</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>26.579919770826407</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>28.617983691869792</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>32.517808964664113</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>28.381028866781161</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>33.035894730938871</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>25.307699002596301</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>28.048603275014251</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>24.286942025025773</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>23.423244751342679</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>21.778101963497182</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>25.479332741764306</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>23.117921516278912</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>26.295229432389746</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>24.956475529722002</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>26.940869510559455</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>24.274007825697993</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>23.706776893268945</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>23.518971579365672</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>25.47651428453673</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>23.326282265528363</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>27.568781487186151</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>22.378054492593066</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>27.239861123955745</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>22.989216499271706</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>24.180407640994542</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>23.6683388699477</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>27.12564071172002</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>23.335625214762519</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>27.474384432830306</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>23.294284975420656</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>27.11356031665937</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>23.202514730436931</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>23.691520929518095</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>23.408689142920114</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>27.000612345511222</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>24.377696867810091</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>28.47247833241909</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>24.346110293331446</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>27.480759052501423</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>23.412308121964895</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>24.885798919308879</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>23.209668328133713</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>26.209973476118133</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>22.806968393394971</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>18.05533296262907</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>22.772139436559279</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>26.099469820376736</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>22.512648739634162</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>23.596882715566196</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>22.200503869332575</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>17.429440827817917</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>23.395243829757607</v>
       </c>

--- a/Project/Результаты.xlsx
+++ b/Project/Результаты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ACS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadvergasov/workspace/ACS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386EBEC-3D63-434B-A30F-7D0507DC427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354FA184-4437-AA47-A1EF-E1F5D4805D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -199,7 +199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
     <dxf>
@@ -380,7 +380,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -941,7 +941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -1006,7 +1006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -1034,7 +1034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1048,7 +1048,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1124,7 +1124,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1838,7 +1838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -1902,7 +1902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -1945,7 +1945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1975,7 +1975,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1989,7 +1989,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2062,7 +2062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4066,7 +4066,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10200"/>
-          <c:min val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4132,7 +4132,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4169,7 +4169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -4288,7 +4288,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4324,7 +4324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -4368,7 +4368,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4398,7 +4398,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4412,7 +4412,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4483,7 +4483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8353,7 +8353,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8390,7 +8390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -8509,7 +8509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8545,7 +8545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -8587,7 +8587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8617,7 +8617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8631,7 +8631,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8671,7 +8671,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> многопоточном режиме</a:t>
+              <a:t> однопоточном режиме</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -8702,7 +8702,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10772,7 +10772,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10809,7 +10809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -10928,7 +10928,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10964,7 +10964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -11007,7 +11007,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11037,7 +11037,3466 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> многопоточный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> против однопоточного</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12679022137818335"/>
+          <c:y val="7.9215871460689743E-2"/>
+          <c:w val="0.84487889121169557"/>
+          <c:h val="0.78323027059161776"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Многопоточное</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$U$3:$U$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$T$2:$T$100</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>912287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1535806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3097143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5116495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8361280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12065423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17633988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30020789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31812639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41240574</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54349584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71284050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103224285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115164013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142987888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220130914</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211095300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>252476435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>318850689</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>344307870</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460690073</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>448870549</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>512540548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>589856885</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>671280553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>688702890</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>849121854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>944208047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1119178439</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1232427623</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1234909676</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1407146381</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1534031794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1669581096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1812001235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1956846297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2104160393</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2342409717</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2527289827</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2629637431</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2822642663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3026239034</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3331142107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3554889835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4474716479</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5348022646</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5253740304</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4919374516</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4753267668</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5791092450</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5892592341</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5175560535</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5387458352</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5692981972</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6055887593</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6732263161</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7247291571</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7347897229</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7584304999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8504891660</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8033259325</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8377643179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8778575297</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9498576322</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9597016664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10089001409</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10669416127</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11083367520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11490095054</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12040460436</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12636935218</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13064605598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13695859107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14150877770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14971593318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15620784975</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15855618148</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16741762993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19128547565</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18445548848</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19084476904</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19524720804</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20660677056</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21491439740</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22249818990</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22698364409</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25105318648</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24257645418</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>25235331215</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26219260738</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27680028274</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28678456341</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30550365588</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>30484321107</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31588655271</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32790785575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8259-8540-ABDE-23D674C4761E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Однопоточное</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$U$3:$U$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$X$3:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>1006457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1490353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6370301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13182951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25140896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43301641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68678441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100450050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139869256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194329847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>263137739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350709821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>477878843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>601212659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>773255724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>967881674</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1190339466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1431932422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1687328217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1977430750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2288905025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2646700438</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3032959019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3448561696</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3890873326</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4382399346</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4909904843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5468524114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6095173441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6743609014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7432131807</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8182647160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8983524854</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9815098995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10692362527</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11646782595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12665492767</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13703977876</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14832979795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15986880863</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17235471904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18576560841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19911584948</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21354723801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22876991307</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24443339824</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26525248344</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27776164140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29544778426</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31400688747</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33323393169</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35356863083</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37379068991</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39581053899</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41729572614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44076211449</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46575067079</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48996394822</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51622602261</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54180813824</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56925762639</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59773717541</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62686568702</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65707974853</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>68663718329</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71798840351</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75159602509</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78558091337</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82211971291</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85918659983</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89693120165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93446959911</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>97587632077</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>101777512326</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>105909827907</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>110365137438</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>114984561324</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>119319166384</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>124128675353</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>128945533360</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>133516699576</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>138437373093</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>144028522958</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>149263462547</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>154864685867</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>159876914952</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>166183613208</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>169576972283</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176539288072</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>182681436661</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>187669495337</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>194964117853</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>201279746421</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>208079984807</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>214837171566</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>220582012980</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>231324455872</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>237398709069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8259-8540-ABDE-23D674C4761E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="299348864"/>
+        <c:axId val="299346784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="299348864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Размер стороны матрицы, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44348897507283064"/>
+              <c:y val="0.91024860965895193"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299346784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299346784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255000000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время выполнения</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>нс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.735727257216713E-2"/>
+              <c:y val="0.33020494428576158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299348864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20000000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> многопоточный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> против однопоточного</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12679022137818335"/>
+          <c:y val="7.9215871460689743E-2"/>
+          <c:w val="0.84487889121169557"/>
+          <c:h val="0.78323027059161776"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Многопоточное</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$U$3:$U$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AB$3:$AB$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>52800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>743000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1098600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1969100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3144300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4361700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5198800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8053400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8927200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13251400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14349800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19296200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24548300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28319700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22094200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27766200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29085500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38690800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39201300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50511300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60114400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64885200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65778100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82272800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80546900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102784300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101110300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>126763200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>143986200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>153145900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150058600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182965000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>174772000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>217595600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>209043200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>252286400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>280667900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>287758700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>283795900</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>341226100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>322181800</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>398144100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>373674400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>457776900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>490822600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>520013200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>485580200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>591951100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>533303000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>663212600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>607421400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>743420400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>779813900</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>826462400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>755981900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>925640400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>823478900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1017176400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>930822300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1135007500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1168258300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1237812600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1131300500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1366656100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1215617900</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1493269900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1344701300</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1626553000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1659812200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1771026400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1591270300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1927708900</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1698454100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2081398900</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1853530400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2247672800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2280481400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2396781700</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2124407700</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2605955500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2298901500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2804707500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2527545500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3059306000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3043459400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3222425500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2914824900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3471848100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4477559600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3718423900</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3342254600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3984521400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3954857300</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4279867100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5449094800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4544451500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6143129900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEDC-D543-983F-7683063A744C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Однопоточное</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$U$3:$U$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AF$3:$AF$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>179700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1107300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3671100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8723000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17014400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29514000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46751500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62499400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71970400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100159300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133417600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171824800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>221558500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>276365800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>340223600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>412068500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>497405500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>588084200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>696293400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>808506300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>942401600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1079461600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1235233500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1400488400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1585770100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1789291500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996725300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2207048900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2496613000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2735137600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3058650400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3343208700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3689359000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4021933300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4430783000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4780957500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5249599200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5636167400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6158879100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6655917100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7157700800</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7684747800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8297808100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8790416300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9509804800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10088945600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10845427400</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11436919100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12311205700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12979038000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13885503000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14611371900</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15626699600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16365135400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17426800500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18386697700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19392272600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20404575300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21574988700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22691362400</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23811184600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25151837400</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26146313600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27567217000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28706736300</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30319892000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31526787500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33040802800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34337504400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36157456600</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37408416800</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39532276000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40611791700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43044773200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44098555000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46109038000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47687460300</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50019790800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51480993800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53814568200</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55482648200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>58045209800</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59748449900</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>62216948900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>64122016200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>66935099100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>68797331000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71506065100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73770397500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>76728333600</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78831494500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>81781477500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84007063100</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87396539400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89575205700</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92870053100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95377450100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99016385100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>101577948700</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>105204282600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEDC-D543-983F-7683063A744C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="299348864"/>
+        <c:axId val="299346784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="299348864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Размер стороны матрицы, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44348897507283064"/>
+              <c:y val="0.91024860965895193"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299346784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299346784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="115000000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время выполнения</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>нс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.735727257216713E-2"/>
+              <c:y val="0.33020494428576158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299348864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20000000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11051,7 +14510,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11114,7 +14573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11668,7 +15127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -11734,7 +15193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -11776,7 +15235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11806,7 +15265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11820,7 +15279,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11882,7 +15341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12272,7 +15731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976803295"/>
@@ -12337,7 +15796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976790815"/>
@@ -12379,7 +15838,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12409,7 +15868,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12423,7 +15882,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12522,7 +15981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12735,7 +16194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -12800,7 +16259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -12842,7 +16301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12872,7 +16331,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12886,7 +16345,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12949,7 +16408,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14809,7 +18268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957226943"/>
@@ -14874,7 +18333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957224447"/>
@@ -14917,7 +18376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14947,7 +18406,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14961,7 +18420,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15024,7 +18483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16875,7 +20334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -16934,7 +20393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -16976,7 +20435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17006,7 +20465,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17020,7 +20479,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17087,7 +20546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18312,7 +21771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132622959"/>
@@ -18371,7 +21830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132640847"/>
@@ -18413,7 +21872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18443,7 +21902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18457,7 +21916,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18523,7 +21982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19179,7 +22638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -19238,7 +22697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -19280,7 +22739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19310,7 +22769,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19324,7 +22783,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19395,7 +22854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21408,7 +24867,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10200"/>
-          <c:min val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -21474,7 +24933,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21511,7 +24970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -21630,7 +25089,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21666,7 +25125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -21708,7 +25167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21738,7 +25197,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21870,6 +25329,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23778,6 +27317,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28891,6 +33462,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>404519</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>135578</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>83699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FA963C-F3FA-5D41-B5A6-1FEB06DDDE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>442149</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>173208</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>17847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13154F51-AC4A-6449-A4A9-42567F1691B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29116,22 +33763,22 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DE491235-711F-45C6-AE31-3EC4D5500B3D}" name="gpu_clear_garbage" displayName="gpu_clear_garbage" ref="AG2:AJ102" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DE491235-711F-45C6-AE31-3EC4D5500B3D}" name="gpu_clear_garbage" displayName="gpu_clear_garbage" ref="AG2:AJ102" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="AG2:AJ102" xr:uid="{DE491235-711F-45C6-AE31-3EC4D5500B3D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C90D19B-1A57-4B3F-8FC0-B7B83EE75216}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0351E27F-F3CD-4AD8-B325-8299F97D9CF1}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6AC079C7-6723-4EEA-A981-73F9B16AC3E5}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2B1A8458-9426-43A9-BBE4-A19F8895C597}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6C90D19B-1A57-4B3F-8FC0-B7B83EE75216}" uniqueName="1" name="count" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0351E27F-F3CD-4AD8-B325-8299F97D9CF1}" uniqueName="2" name="allocation_time" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6AC079C7-6723-4EEA-A981-73F9B16AC3E5}" uniqueName="3" name="fill_time" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2B1A8458-9426-43A9-BBE4-A19F8895C597}" uniqueName="4" name="calculation_time" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -29169,7 +33816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -29275,7 +33922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -29427,51 +34074,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C748B-0114-48AC-B243-B48FA908BAD5}">
   <dimension ref="A1:AJ202"/>
   <sheetViews>
-    <sheetView topLeftCell="Q148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:AB202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -29527,7 +34174,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29637,7 +34284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -29747,7 +34394,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>150</v>
       </c>
@@ -29857,7 +34504,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
       </c>
@@ -29967,7 +34614,7 @@
         <v>180700</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -30077,7 +34724,7 @@
         <v>339300</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>300</v>
       </c>
@@ -30187,7 +34834,7 @@
         <v>749000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>350</v>
       </c>
@@ -30297,7 +34944,7 @@
         <v>1100700</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>400</v>
       </c>
@@ -30407,7 +35054,7 @@
         <v>1970600</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>450</v>
       </c>
@@ -30517,7 +35164,7 @@
         <v>3155100</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -30627,7 +35274,7 @@
         <v>4353500</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>550</v>
       </c>
@@ -30737,7 +35384,7 @@
         <v>5207000</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>600</v>
       </c>
@@ -30847,7 +35494,7 @@
         <v>8063500</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>650</v>
       </c>
@@ -30957,7 +35604,7 @@
         <v>8949700</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>700</v>
       </c>
@@ -31067,7 +35714,7 @@
         <v>13263200</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>750</v>
       </c>
@@ -31177,7 +35824,7 @@
         <v>14355100</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>800</v>
       </c>
@@ -31287,7 +35934,7 @@
         <v>19310000</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>850</v>
       </c>
@@ -31397,7 +36044,7 @@
         <v>24573900</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>900</v>
       </c>
@@ -31507,7 +36154,7 @@
         <v>25428000</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>950</v>
       </c>
@@ -31617,7 +36264,7 @@
         <v>19790200</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -31711,7 +36358,7 @@
         <v>25833900</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -31805,7 +36452,7 @@
         <v>28468000</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -31899,7 +36546,7 @@
         <v>37094300</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -31993,7 +36640,7 @@
         <v>37781200</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -32087,7 +36734,7 @@
         <v>48230700</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -32181,7 +36828,7 @@
         <v>57821100</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -32275,7 +36922,7 @@
         <v>61966300</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -32369,7 +37016,7 @@
         <v>63337100</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -32463,7 +37110,7 @@
         <v>79421200</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -32557,7 +37204,7 @@
         <v>77506600</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -32651,7 +37298,7 @@
         <v>99117600</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -32745,7 +37392,7 @@
         <v>97443600</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -32839,7 +37486,7 @@
         <v>121042300</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -32933,7 +37580,7 @@
         <v>137656100</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -33027,7 +37674,7 @@
         <v>145950100</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -33121,7 +37768,7 @@
         <v>143914500</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -33215,7 +37862,7 @@
         <v>175784200</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -33309,7 +37956,7 @@
         <v>167991000</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -33403,7 +38050,7 @@
         <v>207777700</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -33497,7 +38144,7 @@
         <v>201312300</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -33591,7 +38238,7 @@
         <v>241318500</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -33685,7 +38332,7 @@
         <v>269848000</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -33779,7 +38426,7 @@
         <v>274566900</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -33873,7 +38520,7 @@
         <v>271394800</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -33967,7 +38614,7 @@
         <v>327387800</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -34061,7 +38708,7 @@
         <v>308711300</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -34155,7 +38802,7 @@
         <v>381827700</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -34249,7 +38896,7 @@
         <v>359138400</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -34343,7 +38990,7 @@
         <v>435832300</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -34437,7 +39084,7 @@
         <v>470364400</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -34531,7 +39178,7 @@
         <v>496264500</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -34625,7 +39272,7 @@
         <v>466380300</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -34719,7 +39366,7 @@
         <v>566843400</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -34813,7 +39460,7 @@
         <v>512977600</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -34907,7 +39554,7 @@
         <v>631635700</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -35001,7 +39648,7 @@
         <v>585900000</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -35095,7 +39742,7 @@
         <v>714649800</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -35189,7 +39836,7 @@
         <v>753451400</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -35283,7 +39930,7 @@
         <v>792252000</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -35377,7 +40024,7 @@
         <v>729452200</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -35471,7 +40118,7 @@
         <v>886381100</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -35565,7 +40212,7 @@
         <v>792718700</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -35659,7 +40306,7 @@
         <v>976047800</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -35753,7 +40400,7 @@
         <v>898349400</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -35847,7 +40494,7 @@
         <v>1089309500</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -35941,7 +40588,7 @@
         <v>1131293100</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -36035,7 +40682,7 @@
         <v>1196202200</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -36129,7 +40776,7 @@
         <v>1094641400</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -36223,7 +40870,7 @@
         <v>1321327700</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -36317,7 +40964,7 @@
         <v>1178462200</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -36411,7 +41058,7 @@
         <v>1441607100</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -36505,7 +41152,7 @@
         <v>1305316400</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -36599,7 +41246,7 @@
         <v>1572638700</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -36693,7 +41340,7 @@
         <v>1618462600</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -36787,7 +41434,7 @@
         <v>1724269500</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -36881,7 +41528,7 @@
         <v>1554061600</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -36975,7 +41622,7 @@
         <v>1878473100</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -37069,7 +41716,7 @@
         <v>1656120300</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -37163,7 +41810,7 @@
         <v>2031459500</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -37257,7 +41904,7 @@
         <v>1811854200</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -37351,7 +41998,7 @@
         <v>2198072800</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -37445,7 +42092,7 @@
         <v>2237531100</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -37539,7 +42186,7 @@
         <v>2346310300</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -37633,7 +42280,7 @@
         <v>2081203700</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -37727,7 +42374,7 @@
         <v>2555721700</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -37821,7 +42468,7 @@
         <v>2257308200</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -37915,7 +42562,7 @@
         <v>2748480200</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -38009,7 +42656,7 @@
         <v>2496623500</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -38103,7 +42750,7 @@
         <v>3010164200</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -38197,7 +42844,7 @@
         <v>2995417500</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -38291,7 +42938,7 @@
         <v>3172186400</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -38385,7 +43032,7 @@
         <v>2875806300</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -38463,7 +43110,7 @@
         <v>3418138800</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -38541,7 +43188,7 @@
         <v>4520189900</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -38619,7 +43266,7 @@
         <v>3671197100</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -38697,7 +43344,7 @@
         <v>3369169900</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38775,7 +43422,7 @@
         <v>3957784000</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -38853,7 +43500,7 @@
         <v>3915041700</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -38931,7 +43578,7 @@
         <v>4240580100</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -39009,7 +43656,7 @@
         <v>5519398100</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -39087,7 +43734,7 @@
         <v>4531197100</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39165,7 +43812,7 @@
         <v>6190348100</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y103" s="1">
         <v>10100</v>
       </c>
@@ -39179,7 +43826,7 @@
         <v>7168659200</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y104" s="1">
         <v>10200</v>
       </c>
@@ -39193,7 +43840,7 @@
         <v>6807713000</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y105" s="1">
         <v>10300</v>
       </c>
@@ -39207,7 +43854,7 @@
         <v>5220762500</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y106" s="1">
         <v>10400</v>
       </c>
@@ -39221,7 +43868,7 @@
         <v>5021895100</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y107" s="1">
         <v>10500</v>
       </c>
@@ -39235,7 +43882,7 @@
         <v>5573705900</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y108" s="1">
         <v>10600</v>
       </c>
@@ -39249,7 +43896,7 @@
         <v>7988271700</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y109" s="1">
         <v>10700</v>
       </c>
@@ -39263,7 +43910,7 @@
         <v>6000266300</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y110" s="1">
         <v>10800</v>
       </c>
@@ -39277,7 +43924,7 @@
         <v>8660593300</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y111" s="1">
         <v>10900</v>
       </c>
@@ -39291,7 +43938,7 @@
         <v>6317493300</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y112" s="1">
         <v>11000</v>
       </c>
@@ -39305,7 +43952,7 @@
         <v>9296156000</v>
       </c>
     </row>
-    <row r="113" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y113" s="1">
         <v>11100</v>
       </c>
@@ -39319,7 +43966,7 @@
         <v>7354397800</v>
       </c>
     </row>
-    <row r="114" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y114" s="1">
         <v>11200</v>
       </c>
@@ -39333,7 +43980,7 @@
         <v>6300431900</v>
       </c>
     </row>
-    <row r="115" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y115" s="1">
         <v>11300</v>
       </c>
@@ -39347,7 +43994,7 @@
         <v>7696143600</v>
       </c>
     </row>
-    <row r="116" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y116" s="1">
         <v>11400</v>
       </c>
@@ -39361,7 +44008,7 @@
         <v>10361701100</v>
       </c>
     </row>
-    <row r="117" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y117" s="1">
         <v>11500</v>
       </c>
@@ -39375,7 +44022,7 @@
         <v>8316801700</v>
       </c>
     </row>
-    <row r="118" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y118" s="1">
         <v>11600</v>
       </c>
@@ -39389,7 +44036,7 @@
         <v>10754115900</v>
       </c>
     </row>
-    <row r="119" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y119" s="1">
         <v>11700</v>
       </c>
@@ -39403,7 +44050,7 @@
         <v>9296709000</v>
       </c>
     </row>
-    <row r="120" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y120" s="1">
         <v>11800</v>
       </c>
@@ -39417,7 +44064,7 @@
         <v>11549398500</v>
       </c>
     </row>
-    <row r="121" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y121" s="1">
         <v>11900</v>
       </c>
@@ -39431,7 +44078,7 @@
         <v>10198840400</v>
       </c>
     </row>
-    <row r="122" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y122" s="1">
         <v>12000</v>
       </c>
@@ -39445,7 +44092,7 @@
         <v>8038960100</v>
       </c>
     </row>
-    <row r="123" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y123" s="1">
         <v>12100</v>
       </c>
@@ -39459,7 +44106,7 @@
         <v>10899253000</v>
       </c>
     </row>
-    <row r="124" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y124" s="1">
         <v>12200</v>
       </c>
@@ -39473,7 +44120,7 @@
         <v>13827617000</v>
       </c>
     </row>
-    <row r="125" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y125" s="1">
         <v>12300</v>
       </c>
@@ -39487,7 +44134,7 @@
         <v>13217014200</v>
       </c>
     </row>
-    <row r="126" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y126" s="1">
         <v>12400</v>
       </c>
@@ -39501,7 +44148,7 @@
         <v>13884708000</v>
       </c>
     </row>
-    <row r="127" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y127" s="1">
         <v>12500</v>
       </c>
@@ -39515,7 +44162,7 @@
         <v>12301603600</v>
       </c>
     </row>
-    <row r="128" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y128" s="1">
         <v>12600</v>
       </c>
@@ -39529,7 +44176,7 @@
         <v>14846397000</v>
       </c>
     </row>
-    <row r="129" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y129" s="1">
         <v>12700</v>
       </c>
@@ -39543,7 +44190,7 @@
         <v>13766027100</v>
       </c>
     </row>
-    <row r="130" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y130" s="1">
         <v>12800</v>
       </c>
@@ -39557,7 +44204,7 @@
         <v>11685520700</v>
       </c>
     </row>
-    <row r="131" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y131" s="1">
         <v>12900</v>
       </c>
@@ -39571,7 +44218,7 @@
         <v>14767429200</v>
       </c>
     </row>
-    <row r="132" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y132" s="1">
         <v>13000</v>
       </c>
@@ -39585,7 +44232,7 @@
         <v>18595671100</v>
       </c>
     </row>
-    <row r="133" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y133" s="1">
         <v>13100</v>
       </c>
@@ -39599,7 +44246,7 @@
         <v>15856786700</v>
       </c>
     </row>
-    <row r="134" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y134" s="1">
         <v>13200</v>
       </c>
@@ -39613,7 +44260,7 @@
         <v>17622611800</v>
       </c>
     </row>
-    <row r="135" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y135" s="1">
         <v>13300</v>
       </c>
@@ -39627,7 +44274,7 @@
         <v>16090161200</v>
       </c>
     </row>
-    <row r="136" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y136" s="1">
         <v>13400</v>
       </c>
@@ -39641,7 +44288,7 @@
         <v>20253420900</v>
       </c>
     </row>
-    <row r="137" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y137" s="1">
         <v>13500</v>
       </c>
@@ -39655,7 +44302,7 @@
         <v>17949088800</v>
       </c>
     </row>
-    <row r="138" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y138" s="1">
         <v>13600</v>
       </c>
@@ -39669,7 +44316,7 @@
         <v>18601060500</v>
       </c>
     </row>
-    <row r="139" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y139" s="1">
         <v>13700</v>
       </c>
@@ -39683,7 +44330,7 @@
         <v>18885847700</v>
       </c>
     </row>
-    <row r="140" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y140" s="1">
         <v>13800</v>
       </c>
@@ -39697,7 +44344,7 @@
         <v>21166469700</v>
       </c>
     </row>
-    <row r="141" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y141" s="1">
         <v>13900</v>
       </c>
@@ -39711,7 +44358,7 @@
         <v>21000451500</v>
       </c>
     </row>
-    <row r="142" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y142" s="1">
         <v>14000</v>
       </c>
@@ -39725,7 +44372,7 @@
         <v>21081898500</v>
       </c>
     </row>
-    <row r="143" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y143" s="1">
         <v>14100</v>
       </c>
@@ -39739,7 +44386,7 @@
         <v>21376747900</v>
       </c>
     </row>
-    <row r="144" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y144" s="1">
         <v>14200</v>
       </c>
@@ -39753,7 +44400,7 @@
         <v>23600780400</v>
       </c>
     </row>
-    <row r="145" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y145" s="1">
         <v>14300</v>
       </c>
@@ -39767,7 +44414,7 @@
         <v>22492407500</v>
       </c>
     </row>
-    <row r="146" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y146" s="1">
         <v>14400</v>
       </c>
@@ -39781,7 +44428,7 @@
         <v>23520096700</v>
       </c>
     </row>
-    <row r="147" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y147" s="1">
         <v>14500</v>
       </c>
@@ -39795,7 +44442,7 @@
         <v>24094664700</v>
       </c>
     </row>
-    <row r="148" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y148" s="1">
         <v>14600</v>
       </c>
@@ -39809,7 +44456,7 @@
         <v>25992474100</v>
       </c>
     </row>
-    <row r="149" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y149" s="1">
         <v>14700</v>
       </c>
@@ -39823,7 +44470,7 @@
         <v>25525197400</v>
       </c>
     </row>
-    <row r="150" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y150" s="1">
         <v>14800</v>
       </c>
@@ -39837,7 +44484,7 @@
         <v>26818156000</v>
       </c>
     </row>
-    <row r="151" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y151" s="1">
         <v>14900</v>
       </c>
@@ -39851,7 +44498,7 @@
         <v>29876575000</v>
       </c>
     </row>
-    <row r="152" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y152" s="1">
         <v>15000</v>
       </c>
@@ -39865,7 +44512,7 @@
         <v>28829077300</v>
       </c>
     </row>
-    <row r="153" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y153" s="1">
         <v>15100</v>
       </c>
@@ -39879,7 +44526,7 @@
         <v>28496336600</v>
       </c>
     </row>
-    <row r="154" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y154" s="1">
         <v>15200</v>
       </c>
@@ -39893,7 +44540,7 @@
         <v>27425657000</v>
       </c>
     </row>
-    <row r="155" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y155" s="1">
         <v>15300</v>
       </c>
@@ -39907,7 +44554,7 @@
         <v>31251082400</v>
       </c>
     </row>
-    <row r="156" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y156" s="1">
         <v>15400</v>
       </c>
@@ -39921,7 +44568,7 @@
         <v>32498587600</v>
       </c>
     </row>
-    <row r="157" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y157" s="1">
         <v>15500</v>
       </c>
@@ -39935,7 +44582,7 @@
         <v>31619444600</v>
       </c>
     </row>
-    <row r="158" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y158" s="1">
         <v>15600</v>
       </c>
@@ -39949,7 +44596,7 @@
         <v>31568162700</v>
       </c>
     </row>
-    <row r="159" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y159" s="1">
         <v>15700</v>
       </c>
@@ -39963,7 +44610,7 @@
         <v>33351129100</v>
       </c>
     </row>
-    <row r="160" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y160" s="1">
         <v>15800</v>
       </c>
@@ -39977,7 +44624,7 @@
         <v>36628476100</v>
       </c>
     </row>
-    <row r="161" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y161" s="1">
         <v>15900</v>
       </c>
@@ -39991,7 +44638,7 @@
         <v>36033401600</v>
       </c>
     </row>
-    <row r="162" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y162" s="1">
         <v>16000</v>
       </c>
@@ -40005,7 +44652,7 @@
         <v>33026093500</v>
       </c>
     </row>
-    <row r="163" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y163" s="1">
         <v>16100</v>
       </c>
@@ -40019,7 +44666,7 @@
         <v>37037741200</v>
       </c>
     </row>
-    <row r="164" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y164" s="1">
         <v>16200</v>
       </c>
@@ -40033,7 +44680,7 @@
         <v>37781790100</v>
       </c>
     </row>
-    <row r="165" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y165" s="1">
         <v>16300</v>
       </c>
@@ -40047,7 +44694,7 @@
         <v>38234754300</v>
       </c>
     </row>
-    <row r="166" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y166" s="1">
         <v>16400</v>
       </c>
@@ -40061,7 +44708,7 @@
         <v>37180357400</v>
       </c>
     </row>
-    <row r="167" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y167" s="1">
         <v>16500</v>
       </c>
@@ -40075,7 +44722,7 @@
         <v>39585497700</v>
       </c>
     </row>
-    <row r="168" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y168" s="1">
         <v>16600</v>
       </c>
@@ -40089,7 +44736,7 @@
         <v>41176162000</v>
       </c>
     </row>
-    <row r="169" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y169" s="1">
         <v>16700</v>
       </c>
@@ -40103,7 +44750,7 @@
         <v>41932748100</v>
       </c>
     </row>
-    <row r="170" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y170" s="1">
         <v>16800</v>
       </c>
@@ -40117,7 +44764,7 @@
         <v>37764747100</v>
       </c>
     </row>
-    <row r="171" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y171" s="1">
         <v>16900</v>
       </c>
@@ -40131,7 +44778,7 @@
         <v>46182894100</v>
       </c>
     </row>
-    <row r="172" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y172" s="1">
         <v>17000</v>
       </c>
@@ -40145,7 +44792,7 @@
         <v>45175558100</v>
       </c>
     </row>
-    <row r="173" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y173" s="1">
         <v>17100</v>
       </c>
@@ -40159,7 +44806,7 @@
         <v>45345909100</v>
       </c>
     </row>
-    <row r="174" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y174" s="1">
         <v>17200</v>
       </c>
@@ -40173,7 +44820,7 @@
         <v>44226654400</v>
       </c>
     </row>
-    <row r="175" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y175" s="1">
         <v>17300</v>
       </c>
@@ -40187,7 +44834,7 @@
         <v>48993716600</v>
       </c>
     </row>
-    <row r="176" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y176" s="1">
         <v>17400</v>
       </c>
@@ -40201,7 +44848,7 @@
         <v>51559116300</v>
       </c>
     </row>
-    <row r="177" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y177" s="1">
         <v>17500</v>
       </c>
@@ -40215,7 +44862,7 @@
         <v>51433793800</v>
       </c>
     </row>
-    <row r="178" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y178" s="1">
         <v>17600</v>
       </c>
@@ -40229,7 +44876,7 @@
         <v>46678410800</v>
       </c>
     </row>
-    <row r="179" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y179" s="1">
         <v>17700</v>
       </c>
@@ -40243,7 +44890,7 @@
         <v>53430075900</v>
       </c>
     </row>
-    <row r="180" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y180" s="1">
         <v>17800</v>
       </c>
@@ -40257,7 +44904,7 @@
         <v>52503252100</v>
       </c>
     </row>
-    <row r="181" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y181" s="1">
         <v>17900</v>
       </c>
@@ -40271,7 +44918,7 @@
         <v>54301561700</v>
       </c>
     </row>
-    <row r="182" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y182" s="1">
         <v>18000</v>
       </c>
@@ -40285,7 +44932,7 @@
         <v>50929541600</v>
       </c>
     </row>
-    <row r="183" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y183" s="1">
         <v>18100</v>
       </c>
@@ -40299,7 +44946,7 @@
         <v>58964484900</v>
       </c>
     </row>
-    <row r="184" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y184" s="1">
         <v>18200</v>
       </c>
@@ -40313,7 +44960,7 @@
         <v>60569688000</v>
       </c>
     </row>
-    <row r="185" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y185" s="1">
         <v>18300</v>
       </c>
@@ -40327,7 +44974,7 @@
         <v>66082144000</v>
       </c>
     </row>
-    <row r="186" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y186" s="1">
         <v>18400</v>
       </c>
@@ -40341,7 +44988,7 @@
         <v>55292830800</v>
       </c>
     </row>
-    <row r="187" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y187" s="1">
         <v>18500</v>
       </c>
@@ -40355,7 +45002,7 @@
         <v>63354259000</v>
       </c>
     </row>
-    <row r="188" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y188" s="1">
         <v>18600</v>
       </c>
@@ -40369,7 +45016,7 @@
         <v>61775352400</v>
       </c>
     </row>
-    <row r="189" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y189" s="1">
         <v>18700</v>
       </c>
@@ -40383,7 +45030,7 @@
         <v>64190222800</v>
       </c>
     </row>
-    <row r="190" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y190" s="1">
         <v>18800</v>
       </c>
@@ -40397,7 +45044,7 @@
         <v>59542457600</v>
       </c>
     </row>
-    <row r="191" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y191" s="1">
         <v>18900</v>
       </c>
@@ -40411,7 +45058,7 @@
         <v>69237732400</v>
       </c>
     </row>
-    <row r="192" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y192" s="1">
         <v>19000</v>
       </c>
@@ -40425,7 +45072,7 @@
         <v>66935460300</v>
       </c>
     </row>
-    <row r="193" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y193" s="1">
         <v>19100</v>
       </c>
@@ -40439,7 +45086,7 @@
         <v>70511301500</v>
       </c>
     </row>
-    <row r="194" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y194" s="1">
         <v>19200</v>
       </c>
@@ -40453,7 +45100,7 @@
         <v>62490885100</v>
       </c>
     </row>
-    <row r="195" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y195" s="1">
         <v>19300</v>
       </c>
@@ -40467,7 +45114,7 @@
         <v>75217538000</v>
       </c>
     </row>
-    <row r="196" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y196" s="1">
         <v>19400</v>
       </c>
@@ -40481,7 +45128,7 @@
         <v>73521908500</v>
       </c>
     </row>
-    <row r="197" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y197" s="1">
         <v>19500</v>
       </c>
@@ -40495,7 +45142,7 @@
         <v>77490945600</v>
       </c>
     </row>
-    <row r="198" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y198" s="1">
         <v>19600</v>
       </c>
@@ -40509,7 +45156,7 @@
         <v>68392564300</v>
       </c>
     </row>
-    <row r="199" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y199" s="1">
         <v>19700</v>
       </c>
@@ -40523,7 +45170,7 @@
         <v>81515268700</v>
       </c>
     </row>
-    <row r="200" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y200" s="1">
         <v>19800</v>
       </c>
@@ -40537,7 +45184,7 @@
         <v>77158595000</v>
       </c>
     </row>
-    <row r="201" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y201" s="1">
         <v>19900</v>
       </c>
@@ -40551,7 +45198,7 @@
         <v>85025599500</v>
       </c>
     </row>
-    <row r="202" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y202" s="1">
         <v>20000</v>
       </c>
@@ -40597,11 +45244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05425C90-03A9-45DD-8249-DF023E7A352F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ131" sqref="AQ131"/>
+    <sheetView tabSelected="1" topLeftCell="AD83" zoomScale="160" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP98" sqref="AP98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40617,16 +45264,16 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -40643,7 +45290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A19">cpu_onethread[calculation_time]/cpu[calculation_time]</f>
         <v>1.766244550550135</v>
@@ -40665,7 +45312,7 @@
         <v>0.89393939393939392</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5046169317974036</v>
       </c>
@@ -40682,7 +45329,7 @@
         <v>1.0033726812816188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.9595940541764127</v>
       </c>
@@ -40699,7 +45346,7 @@
         <v>0.96424759871931698</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.065326046792042</v>
       </c>
@@ -40716,7 +45363,7 @@
         <v>1.0050355450236967</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5.1830658292626195</v>
       </c>
@@ -40733,7 +45380,7 @@
         <v>1.0080753701211305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.3337751252833092</v>
       </c>
@@ -40750,7 +45397,7 @@
         <v>1.0019115237575096</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.0736558708899913</v>
       </c>
@@ -40767,7 +45414,7 @@
         <v>1.0007617693362449</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.6007125020398991</v>
       </c>
@@ -40784,7 +45431,7 @@
         <v>1.0034347867569888</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.8154658388611633</v>
       </c>
@@ -40801,7 +45448,7 @@
         <v>0.99811999908292637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.3061831755039446</v>
       </c>
@@ -40818,7 +45465,7 @@
         <v>1.001577287066246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.6255356069565892</v>
       </c>
@@ -40835,7 +45482,7 @@
         <v>1.0012541286909877</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.7589382855401601</v>
       </c>
@@ -40852,7 +45499,7 @@
         <v>1.0025203871314634</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.6384710455435219</v>
       </c>
@@ -40869,7 +45516,7 @@
         <v>1.0008904719501335</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.9927106031072102</v>
       </c>
@@ -40886,7 +45533,7 @@
         <v>1.0003693431267335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.5217331525935949</v>
       </c>
@@ -40903,7 +45550,7 @@
         <v>1.0007151667167629</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.5349788659471715</v>
       </c>
@@ -40920,7 +45567,7 @@
         <v>1.0010428420705304</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.4712241354779731</v>
       </c>
@@ -40937,7 +45584,7 @@
         <v>0.89789086748800306</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5.9946747067045481</v>
       </c>
@@ -40954,7 +45601,7 @@
         <v>0.89571923853318969</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>28.453201945543483</v>
       </c>
@@ -40968,7 +45615,7 @@
         <v>0.93040819413531561</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>24.911627510322916</v>
       </c>
@@ -40982,7 +45629,7 @@
         <v>0.97876948995203794</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>26.911211801549044</v>
       </c>
@@ -40996,7 +45643,7 @@
         <v>0.95873696072451331</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>24.289541247053105</v>
       </c>
@@ -41010,7 +45657,7 @@
         <v>0.96377416055079801</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22.9046199874997</v>
       </c>
@@ -41024,7 +45671,7 @@
         <v>0.95484970689726856</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23.997728216936924</v>
       </c>
@@ -41038,7 +45685,7 @@
         <v>0.96185107062534103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>27.447611574354394</v>
       </c>
@@ -41052,7 +45699,7 @@
         <v>0.95501439465394267</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24.906693565455772</v>
       </c>
@@ -41066,7 +45713,7 @@
         <v>0.96289038448967057</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27.870137457302569</v>
       </c>
@@ -41080,7 +45727,7 @@
         <v>0.96533969914722728</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>24.697394848007328</v>
       </c>
@@ -41094,7 +45741,7 @@
         <v>0.9622542891160305</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27.608930650338312</v>
       </c>
@@ -41108,7 +45755,7 @@
         <v>0.96432626383601383</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>24.890491791358304</v>
       </c>
@@ -41122,7 +45769,7 @@
         <v>0.96373564315406046</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>24.154059494828413</v>
       </c>
@@ -41136,7 +45783,7 @@
         <v>0.95486939427215467</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>25.506880456952299</v>
       </c>
@@ -41150,7 +45797,7 @@
         <v>0.95603675907830055</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>27.276903618219698</v>
       </c>
@@ -41164,7 +45811,7 @@
         <v>0.95301343359502277</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>25.384473562954952</v>
       </c>
@@ -41178,7 +45825,7 @@
         <v>0.95905532905145052</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>28.709724122690655</v>
       </c>
@@ -41192,7 +45839,7 @@
         <v>0.960753149509469</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>24.686655834565016</v>
       </c>
@@ -41206,7 +45853,7 @@
         <v>0.96120087885931382</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>28.353953432365273</v>
       </c>
@@ -41220,7 +45867,7 @@
         <v>0.95488006191301666</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>25.30912467408529</v>
       </c>
@@ -41234,7 +45881,7 @@
         <v>0.96301769203686127</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>26.579919770826407</v>
       </c>
@@ -41248,7 +45895,7 @@
         <v>0.95652599585233289</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>28.617983691869792</v>
       </c>
@@ -41262,7 +45909,7 @@
         <v>0.96144945681355087</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>32.517808964664113</v>
       </c>
@@ -41276,7 +45923,7 @@
         <v>0.95415672923181816</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>28.381028866781161</v>
       </c>
@@ -41290,7 +45937,7 @@
         <v>0.95630275137871967</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>33.035894730938871</v>
       </c>
@@ -41304,7 +45951,7 @@
         <v>0.95944536481822462</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>25.307699002596301</v>
       </c>
@@ -41318,7 +45965,7 @@
         <v>0.95818975497684844</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>28.048603275014251</v>
       </c>
@@ -41332,7 +45979,7 @@
         <v>0.95901885774522344</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>24.286942025025773</v>
       </c>
@@ -41346,7 +45993,7 @@
         <v>0.96109982380382497</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>23.423244751342679</v>
       </c>
@@ -41360,7 +46007,7 @@
         <v>0.95206267507163422</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>21.778101963497182</v>
       </c>
@@ -41374,7 +46021,7 @@
         <v>0.95831854523406212</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>25.479332741764306</v>
       </c>
@@ -41388,7 +46035,7 @@
         <v>0.95433058237752422</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>23.117921516278912</v>
       </c>
@@ -41402,7 +46049,7 @@
         <v>0.96045987871828387</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>26.295229432389746</v>
       </c>
@@ -41416,7 +46063,7 @@
         <v>0.95758484104514718</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>24.956475529722002</v>
       </c>
@@ -41430,7 +46077,7 @@
         <v>0.96188770736335627</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>26.940869510559455</v>
       </c>
@@ -41444,7 +46091,7 @@
         <v>0.95238796729736441</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>24.274007825697993</v>
       </c>
@@ -41458,7 +46105,7 @@
         <v>0.96456924303292579</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>23.706776893268945</v>
       </c>
@@ -41472,7 +46119,7 @@
         <v>0.96129968991972781</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>23.518971579365672</v>
       </c>
@@ -41486,7 +46133,7 @@
         <v>0.96619385727799922</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>25.47651428453673</v>
       </c>
@@ -41500,7 +46147,7 @@
         <v>0.95860622334421985</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>23.326282265528363</v>
       </c>
@@ -41514,7 +46161,7 @@
         <v>0.96490696404239307</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>27.568781487186151</v>
       </c>
@@ -41528,7 +46175,7 @@
         <v>0.95758687715013302</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>22.378054492593066</v>
       </c>
@@ -41542,7 +46189,7 @@
         <v>0.96264603743945354</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>27.239861123955745</v>
       </c>
@@ -41556,7 +46203,7 @@
         <v>0.95956591206795594</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>22.989216499271706</v>
       </c>
@@ -41570,7 +46217,7 @@
         <v>0.96511374942349359</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>24.180407640994542</v>
       </c>
@@ -41584,7 +46231,7 @@
         <v>0.95973771098428862</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>23.6683388699477</v>
       </c>
@@ -41598,7 +46245,7 @@
         <v>0.96835870971342553</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>27.12564071172002</v>
       </c>
@@ -41612,7 +46259,7 @@
         <v>0.96638392596746869</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>23.335625214762519</v>
       </c>
@@ -41626,7 +46273,7 @@
         <v>0.96759561230636781</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>27.474384432830306</v>
       </c>
@@ -41640,7 +46287,7 @@
         <v>0.96683262160831829</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>23.294284975420656</v>
       </c>
@@ -41654,7 +46301,7 @@
         <v>0.9694347212228448</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>27.11356031665937</v>
       </c>
@@ -41668,7 +46315,7 @@
         <v>0.96540290539573592</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>23.202514730436931</v>
       </c>
@@ -41682,7 +46329,7 @@
         <v>0.97071104192432922</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>23.691520929518095</v>
       </c>
@@ -41696,7 +46343,7 @@
         <v>0.96685364694541154</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>23.408689142920114</v>
       </c>
@@ -41710,7 +46357,7 @@
         <v>0.97508778402761465</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>27.000612345511222</v>
       </c>
@@ -41724,7 +46371,7 @@
         <v>0.97359898192370253</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>24.377696867810091</v>
       </c>
@@ -41738,7 +46385,7 @@
         <v>0.97661698329944324</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>28.47247833241909</v>
       </c>
@@ -41752,7 +46399,7 @@
         <v>0.9744589030013816</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>24.346110293331446</v>
       </c>
@@ -41766,7 +46413,7 @@
         <v>0.9750750991740077</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>27.480759052501423</v>
       </c>
@@ -41780,7 +46427,7 @@
         <v>0.97600680965095155</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>23.412308121964895</v>
       </c>
@@ -41794,7 +46441,7 @@
         <v>0.97751523255297024</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>24.885798919308879</v>
       </c>
@@ -41808,7 +46455,7 @@
         <v>0.97793273113417578</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>23.209668328133713</v>
       </c>
@@ -41822,7 +46469,7 @@
         <v>0.98116612571363226</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>26.209973476118133</v>
       </c>
@@ -41836,7 +46483,7 @@
         <v>0.97894201211566323</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>22.806968393394971</v>
       </c>
@@ -41850,7 +46497,7 @@
         <v>0.97966303737272276</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>18.05533296262907</v>
       </c>
@@ -41864,7 +46511,7 @@
         <v>0.98072346208521211</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>22.772139436559279</v>
       </c>
@@ -41878,7 +46525,7 @@
         <v>0.98190731529819786</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>26.099469820376736</v>
       </c>
@@ -41892,7 +46539,7 @@
         <v>0.97995252624382401</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>22.512648739634162</v>
       </c>
@@ -41906,7 +46553,7 @@
         <v>0.98776599669521281</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>23.596882715566196</v>
       </c>
@@ -41920,7 +46567,7 @@
         <v>0.98393694517645502</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>22.200503869332575</v>
       </c>
@@ -41934,7 +46581,7 @@
         <v>0.98421470646199516</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>17.429440827817917</v>
       </c>
@@ -41948,7 +46595,7 @@
         <v>0.98440953871547998</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>23.395243829757607</v>
       </c>
@@ -41962,7 +46609,7 @@
         <v>0.98661374136058744</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>7.436775596012323</v>
       </c>
@@ -41973,7 +46620,7 @@
         <v>0.98453005475671584</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>7.4359120877285205</v>
       </c>
@@ -41984,7 +46631,7 @@
         <v>1.0095208782927201</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>7.2716597117808277</v>
       </c>
@@ -41995,7 +46642,7 @@
         <v>0.98729924256349577</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>7.2556201189085474</v>
       </c>
@@ -42006,7 +46653,7 @@
         <v>1.0080530370127996</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>7.0322291544159707</v>
       </c>
@@ -42017,7 +46664,7 @@
         <v>0.99328968342345958</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7.2359168572512047</v>
       </c>
@@ -42028,7 +46675,7 @@
         <v>0.98993248125539191</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>7.3230232147415171</v>
       </c>
@@ -42039,7 +46686,7 @@
         <v>0.99082050935647048</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>7.2397993797987867</v>
       </c>
@@ -42050,7 +46697,7 @@
         <v>1.0129018309609883</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>7.3125755497913341</v>
       </c>
@@ -42061,7 +46708,7 @@
         <v>0.99708338839131627</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>7.2241434936445872</v>
       </c>

--- a/Project/Результаты.xlsx
+++ b/Project/Результаты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ACS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadvergasov/workspace/ACS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FE546-0DB1-405D-BE9E-02E99C0AEE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281132E-95F8-DE44-8B2D-9B744830FF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" activeTab="2" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -199,7 +199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
     <dxf>
@@ -380,7 +380,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -941,7 +941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -1006,7 +1006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -1034,7 +1034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1048,7 +1048,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1121,7 +1121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3191,7 +3191,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3228,7 +3228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -3347,7 +3347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3383,7 +3383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -3427,7 +3427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3457,7 +3457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3471,7 +3471,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3542,7 +3542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7412,7 +7412,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7449,7 +7449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -7568,7 +7568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7604,7 +7604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -7646,7 +7646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7676,7 +7676,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7690,7 +7690,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7761,7 +7761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9831,7 +9831,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9868,7 +9868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -9987,7 +9987,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10023,7 +10023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -10066,7 +10066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10096,7 +10096,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10110,7 +10110,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10181,7 +10181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11554,7 +11554,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11591,7 +11591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -11712,7 +11712,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11748,7 +11748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -11791,7 +11791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11821,7 +11821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11835,7 +11835,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11906,7 +11906,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13288,7 +13288,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13325,7 +13325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -13446,7 +13446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13482,7 +13482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -13525,7 +13525,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13555,7 +13555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13569,7 +13569,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14321,7 +14321,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14358,7 +14358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -14452,7 +14452,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14488,7 +14488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -14532,7 +14532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14562,7 +14562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14576,7 +14576,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15328,7 +15328,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15365,7 +15365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -15459,7 +15459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15495,7 +15495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -15539,7 +15539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15569,7 +15569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15583,7 +15583,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16335,7 +16335,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16372,7 +16372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -16466,7 +16466,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16502,7 +16502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -16546,7 +16546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16576,7 +16576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16590,7 +16590,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16653,7 +16653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17207,7 +17207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -17273,7 +17273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -17315,7 +17315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17345,7 +17345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17359,7 +17359,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17421,7 +17421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17811,7 +17811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976803295"/>
@@ -17876,7 +17876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976790815"/>
@@ -17918,7 +17918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17948,7 +17948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17962,7 +17962,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18061,7 +18061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18274,7 +18274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -18339,7 +18339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -18381,7 +18381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18411,7 +18411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18425,7 +18425,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18488,7 +18488,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20348,7 +20348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957226943"/>
@@ -20413,7 +20413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957224447"/>
@@ -20456,7 +20456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20486,7 +20486,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20500,7 +20500,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20563,7 +20563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22414,7 +22414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -22473,7 +22473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -22515,7 +22515,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22545,7 +22545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22559,7 +22559,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22626,7 +22626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23851,7 +23851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132622959"/>
@@ -23910,7 +23910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132640847"/>
@@ -23952,7 +23952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23982,7 +23982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23996,7 +23996,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24067,7 +24067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -26146,7 +26146,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26183,7 +26183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -26302,7 +26302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26338,7 +26338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -26380,7 +26380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -26410,7 +26410,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26424,7 +26424,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -26500,7 +26500,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -27214,7 +27214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -27278,7 +27278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -27321,7 +27321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -27351,7 +27351,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -37118,9 +37118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -37158,7 +37158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -37264,7 +37264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -37420,47 +37420,47 @@
       <selection activeCell="Y2" sqref="Y2:AB202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -37516,7 +37516,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -37736,7 +37736,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>150</v>
       </c>
@@ -37846,7 +37846,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
       </c>
@@ -37956,7 +37956,7 @@
         <v>180700</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -38066,7 +38066,7 @@
         <v>339300</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>300</v>
       </c>
@@ -38176,7 +38176,7 @@
         <v>749000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>350</v>
       </c>
@@ -38286,7 +38286,7 @@
         <v>1100700</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>400</v>
       </c>
@@ -38396,7 +38396,7 @@
         <v>1970600</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>450</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>3155100</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -38616,7 +38616,7 @@
         <v>4353500</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>550</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>5207000</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>600</v>
       </c>
@@ -38836,7 +38836,7 @@
         <v>8063500</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>650</v>
       </c>
@@ -38946,7 +38946,7 @@
         <v>8949700</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>700</v>
       </c>
@@ -39056,7 +39056,7 @@
         <v>13263200</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>750</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>14355100</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>800</v>
       </c>
@@ -39276,7 +39276,7 @@
         <v>19310000</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>850</v>
       </c>
@@ -39386,7 +39386,7 @@
         <v>24573900</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>900</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>25428000</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>950</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>19790200</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -39700,7 +39700,7 @@
         <v>25833900</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -39794,7 +39794,7 @@
         <v>28468000</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -39888,7 +39888,7 @@
         <v>37094300</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -39982,7 +39982,7 @@
         <v>37781200</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -40076,7 +40076,7 @@
         <v>48230700</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -40170,7 +40170,7 @@
         <v>57821100</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -40264,7 +40264,7 @@
         <v>61966300</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -40358,7 +40358,7 @@
         <v>63337100</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -40452,7 +40452,7 @@
         <v>79421200</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -40546,7 +40546,7 @@
         <v>77506600</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -40640,7 +40640,7 @@
         <v>99117600</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -40734,7 +40734,7 @@
         <v>97443600</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -40828,7 +40828,7 @@
         <v>121042300</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -40922,7 +40922,7 @@
         <v>137656100</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -41016,7 +41016,7 @@
         <v>145950100</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -41110,7 +41110,7 @@
         <v>143914500</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -41204,7 +41204,7 @@
         <v>175784200</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -41298,7 +41298,7 @@
         <v>167991000</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -41392,7 +41392,7 @@
         <v>207777700</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -41486,7 +41486,7 @@
         <v>201312300</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -41580,7 +41580,7 @@
         <v>241318500</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -41674,7 +41674,7 @@
         <v>269848000</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -41768,7 +41768,7 @@
         <v>274566900</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -41862,7 +41862,7 @@
         <v>271394800</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -41956,7 +41956,7 @@
         <v>327387800</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -42050,7 +42050,7 @@
         <v>308711300</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -42144,7 +42144,7 @@
         <v>381827700</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -42238,7 +42238,7 @@
         <v>359138400</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -42332,7 +42332,7 @@
         <v>435832300</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -42426,7 +42426,7 @@
         <v>470364400</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -42520,7 +42520,7 @@
         <v>496264500</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -42614,7 +42614,7 @@
         <v>466380300</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -42708,7 +42708,7 @@
         <v>566843400</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -42802,7 +42802,7 @@
         <v>512977600</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -42896,7 +42896,7 @@
         <v>631635700</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -42990,7 +42990,7 @@
         <v>585900000</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -43084,7 +43084,7 @@
         <v>714649800</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -43178,7 +43178,7 @@
         <v>753451400</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -43272,7 +43272,7 @@
         <v>792252000</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -43366,7 +43366,7 @@
         <v>729452200</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -43460,7 +43460,7 @@
         <v>886381100</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -43554,7 +43554,7 @@
         <v>792718700</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -43648,7 +43648,7 @@
         <v>976047800</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -43742,7 +43742,7 @@
         <v>898349400</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -43836,7 +43836,7 @@
         <v>1089309500</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -43930,7 +43930,7 @@
         <v>1131293100</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -44024,7 +44024,7 @@
         <v>1196202200</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -44118,7 +44118,7 @@
         <v>1094641400</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -44212,7 +44212,7 @@
         <v>1321327700</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -44306,7 +44306,7 @@
         <v>1178462200</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -44400,7 +44400,7 @@
         <v>1441607100</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -44494,7 +44494,7 @@
         <v>1305316400</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -44588,7 +44588,7 @@
         <v>1572638700</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -44682,7 +44682,7 @@
         <v>1618462600</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -44776,7 +44776,7 @@
         <v>1724269500</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -44870,7 +44870,7 @@
         <v>1554061600</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -44964,7 +44964,7 @@
         <v>1878473100</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -45058,7 +45058,7 @@
         <v>1656120300</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -45152,7 +45152,7 @@
         <v>2031459500</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -45246,7 +45246,7 @@
         <v>1811854200</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -45340,7 +45340,7 @@
         <v>2198072800</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -45434,7 +45434,7 @@
         <v>2237531100</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -45528,7 +45528,7 @@
         <v>2346310300</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -45622,7 +45622,7 @@
         <v>2081203700</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -45716,7 +45716,7 @@
         <v>2555721700</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -45810,7 +45810,7 @@
         <v>2257308200</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -45904,7 +45904,7 @@
         <v>2748480200</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -45998,7 +45998,7 @@
         <v>2496623500</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -46092,7 +46092,7 @@
         <v>3010164200</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -46186,7 +46186,7 @@
         <v>2995417500</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -46280,7 +46280,7 @@
         <v>3172186400</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -46374,7 +46374,7 @@
         <v>2875806300</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -46452,7 +46452,7 @@
         <v>3418138800</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -46530,7 +46530,7 @@
         <v>4520189900</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -46608,7 +46608,7 @@
         <v>3671197100</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -46686,7 +46686,7 @@
         <v>3369169900</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -46764,7 +46764,7 @@
         <v>3957784000</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -46842,7 +46842,7 @@
         <v>3915041700</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -46920,7 +46920,7 @@
         <v>4240580100</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -46998,7 +46998,7 @@
         <v>5519398100</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -47076,7 +47076,7 @@
         <v>4531197100</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -47154,7 +47154,7 @@
         <v>6190348100</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y103" s="1">
         <v>10100</v>
       </c>
@@ -47168,7 +47168,7 @@
         <v>7168659200</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y104" s="1">
         <v>10200</v>
       </c>
@@ -47182,7 +47182,7 @@
         <v>6807713000</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y105" s="1">
         <v>10300</v>
       </c>
@@ -47196,7 +47196,7 @@
         <v>5220762500</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y106" s="1">
         <v>10400</v>
       </c>
@@ -47210,7 +47210,7 @@
         <v>5021895100</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y107" s="1">
         <v>10500</v>
       </c>
@@ -47224,7 +47224,7 @@
         <v>5573705900</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y108" s="1">
         <v>10600</v>
       </c>
@@ -47238,7 +47238,7 @@
         <v>7988271700</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y109" s="1">
         <v>10700</v>
       </c>
@@ -47252,7 +47252,7 @@
         <v>6000266300</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y110" s="1">
         <v>10800</v>
       </c>
@@ -47266,7 +47266,7 @@
         <v>8660593300</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y111" s="1">
         <v>10900</v>
       </c>
@@ -47280,7 +47280,7 @@
         <v>6317493300</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Y112" s="1">
         <v>11000</v>
       </c>
@@ -47294,7 +47294,7 @@
         <v>9296156000</v>
       </c>
     </row>
-    <row r="113" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y113" s="1">
         <v>11100</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>7354397800</v>
       </c>
     </row>
-    <row r="114" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y114" s="1">
         <v>11200</v>
       </c>
@@ -47322,7 +47322,7 @@
         <v>6300431900</v>
       </c>
     </row>
-    <row r="115" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y115" s="1">
         <v>11300</v>
       </c>
@@ -47336,7 +47336,7 @@
         <v>7696143600</v>
       </c>
     </row>
-    <row r="116" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y116" s="1">
         <v>11400</v>
       </c>
@@ -47350,7 +47350,7 @@
         <v>10361701100</v>
       </c>
     </row>
-    <row r="117" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y117" s="1">
         <v>11500</v>
       </c>
@@ -47364,7 +47364,7 @@
         <v>8316801700</v>
       </c>
     </row>
-    <row r="118" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y118" s="1">
         <v>11600</v>
       </c>
@@ -47378,7 +47378,7 @@
         <v>10754115900</v>
       </c>
     </row>
-    <row r="119" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y119" s="1">
         <v>11700</v>
       </c>
@@ -47392,7 +47392,7 @@
         <v>9296709000</v>
       </c>
     </row>
-    <row r="120" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y120" s="1">
         <v>11800</v>
       </c>
@@ -47406,7 +47406,7 @@
         <v>11549398500</v>
       </c>
     </row>
-    <row r="121" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y121" s="1">
         <v>11900</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>10198840400</v>
       </c>
     </row>
-    <row r="122" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y122" s="1">
         <v>12000</v>
       </c>
@@ -47434,7 +47434,7 @@
         <v>8038960100</v>
       </c>
     </row>
-    <row r="123" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y123" s="1">
         <v>12100</v>
       </c>
@@ -47448,7 +47448,7 @@
         <v>10899253000</v>
       </c>
     </row>
-    <row r="124" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y124" s="1">
         <v>12200</v>
       </c>
@@ -47462,7 +47462,7 @@
         <v>13827617000</v>
       </c>
     </row>
-    <row r="125" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y125" s="1">
         <v>12300</v>
       </c>
@@ -47476,7 +47476,7 @@
         <v>13217014200</v>
       </c>
     </row>
-    <row r="126" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y126" s="1">
         <v>12400</v>
       </c>
@@ -47490,7 +47490,7 @@
         <v>13884708000</v>
       </c>
     </row>
-    <row r="127" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y127" s="1">
         <v>12500</v>
       </c>
@@ -47504,7 +47504,7 @@
         <v>12301603600</v>
       </c>
     </row>
-    <row r="128" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y128" s="1">
         <v>12600</v>
       </c>
@@ -47518,7 +47518,7 @@
         <v>14846397000</v>
       </c>
     </row>
-    <row r="129" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y129" s="1">
         <v>12700</v>
       </c>
@@ -47532,7 +47532,7 @@
         <v>13766027100</v>
       </c>
     </row>
-    <row r="130" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y130" s="1">
         <v>12800</v>
       </c>
@@ -47546,7 +47546,7 @@
         <v>11685520700</v>
       </c>
     </row>
-    <row r="131" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y131" s="1">
         <v>12900</v>
       </c>
@@ -47560,7 +47560,7 @@
         <v>14767429200</v>
       </c>
     </row>
-    <row r="132" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y132" s="1">
         <v>13000</v>
       </c>
@@ -47574,7 +47574,7 @@
         <v>18595671100</v>
       </c>
     </row>
-    <row r="133" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y133" s="1">
         <v>13100</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>15856786700</v>
       </c>
     </row>
-    <row r="134" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y134" s="1">
         <v>13200</v>
       </c>
@@ -47602,7 +47602,7 @@
         <v>17622611800</v>
       </c>
     </row>
-    <row r="135" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y135" s="1">
         <v>13300</v>
       </c>
@@ -47616,7 +47616,7 @@
         <v>16090161200</v>
       </c>
     </row>
-    <row r="136" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y136" s="1">
         <v>13400</v>
       </c>
@@ -47630,7 +47630,7 @@
         <v>20253420900</v>
       </c>
     </row>
-    <row r="137" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y137" s="1">
         <v>13500</v>
       </c>
@@ -47644,7 +47644,7 @@
         <v>17949088800</v>
       </c>
     </row>
-    <row r="138" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y138" s="1">
         <v>13600</v>
       </c>
@@ -47658,7 +47658,7 @@
         <v>18601060500</v>
       </c>
     </row>
-    <row r="139" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y139" s="1">
         <v>13700</v>
       </c>
@@ -47672,7 +47672,7 @@
         <v>18885847700</v>
       </c>
     </row>
-    <row r="140" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y140" s="1">
         <v>13800</v>
       </c>
@@ -47686,7 +47686,7 @@
         <v>21166469700</v>
       </c>
     </row>
-    <row r="141" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y141" s="1">
         <v>13900</v>
       </c>
@@ -47700,7 +47700,7 @@
         <v>21000451500</v>
       </c>
     </row>
-    <row r="142" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y142" s="1">
         <v>14000</v>
       </c>
@@ -47714,7 +47714,7 @@
         <v>21081898500</v>
       </c>
     </row>
-    <row r="143" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y143" s="1">
         <v>14100</v>
       </c>
@@ -47728,7 +47728,7 @@
         <v>21376747900</v>
       </c>
     </row>
-    <row r="144" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y144" s="1">
         <v>14200</v>
       </c>
@@ -47742,7 +47742,7 @@
         <v>23600780400</v>
       </c>
     </row>
-    <row r="145" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y145" s="1">
         <v>14300</v>
       </c>
@@ -47756,7 +47756,7 @@
         <v>22492407500</v>
       </c>
     </row>
-    <row r="146" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y146" s="1">
         <v>14400</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>23520096700</v>
       </c>
     </row>
-    <row r="147" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y147" s="1">
         <v>14500</v>
       </c>
@@ -47784,7 +47784,7 @@
         <v>24094664700</v>
       </c>
     </row>
-    <row r="148" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y148" s="1">
         <v>14600</v>
       </c>
@@ -47798,7 +47798,7 @@
         <v>25992474100</v>
       </c>
     </row>
-    <row r="149" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y149" s="1">
         <v>14700</v>
       </c>
@@ -47812,7 +47812,7 @@
         <v>25525197400</v>
       </c>
     </row>
-    <row r="150" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y150" s="1">
         <v>14800</v>
       </c>
@@ -47826,7 +47826,7 @@
         <v>26818156000</v>
       </c>
     </row>
-    <row r="151" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y151" s="1">
         <v>14900</v>
       </c>
@@ -47840,7 +47840,7 @@
         <v>29876575000</v>
       </c>
     </row>
-    <row r="152" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y152" s="1">
         <v>15000</v>
       </c>
@@ -47854,7 +47854,7 @@
         <v>28829077300</v>
       </c>
     </row>
-    <row r="153" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y153" s="1">
         <v>15100</v>
       </c>
@@ -47868,7 +47868,7 @@
         <v>28496336600</v>
       </c>
     </row>
-    <row r="154" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y154" s="1">
         <v>15200</v>
       </c>
@@ -47882,7 +47882,7 @@
         <v>27425657000</v>
       </c>
     </row>
-    <row r="155" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y155" s="1">
         <v>15300</v>
       </c>
@@ -47896,7 +47896,7 @@
         <v>31251082400</v>
       </c>
     </row>
-    <row r="156" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y156" s="1">
         <v>15400</v>
       </c>
@@ -47910,7 +47910,7 @@
         <v>32498587600</v>
       </c>
     </row>
-    <row r="157" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y157" s="1">
         <v>15500</v>
       </c>
@@ -47924,7 +47924,7 @@
         <v>31619444600</v>
       </c>
     </row>
-    <row r="158" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y158" s="1">
         <v>15600</v>
       </c>
@@ -47938,7 +47938,7 @@
         <v>31568162700</v>
       </c>
     </row>
-    <row r="159" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y159" s="1">
         <v>15700</v>
       </c>
@@ -47952,7 +47952,7 @@
         <v>33351129100</v>
       </c>
     </row>
-    <row r="160" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y160" s="1">
         <v>15800</v>
       </c>
@@ -47966,7 +47966,7 @@
         <v>36628476100</v>
       </c>
     </row>
-    <row r="161" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y161" s="1">
         <v>15900</v>
       </c>
@@ -47980,7 +47980,7 @@
         <v>36033401600</v>
       </c>
     </row>
-    <row r="162" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y162" s="1">
         <v>16000</v>
       </c>
@@ -47994,7 +47994,7 @@
         <v>33026093500</v>
       </c>
     </row>
-    <row r="163" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y163" s="1">
         <v>16100</v>
       </c>
@@ -48008,7 +48008,7 @@
         <v>37037741200</v>
       </c>
     </row>
-    <row r="164" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y164" s="1">
         <v>16200</v>
       </c>
@@ -48022,7 +48022,7 @@
         <v>37781790100</v>
       </c>
     </row>
-    <row r="165" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y165" s="1">
         <v>16300</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>38234754300</v>
       </c>
     </row>
-    <row r="166" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y166" s="1">
         <v>16400</v>
       </c>
@@ -48050,7 +48050,7 @@
         <v>37180357400</v>
       </c>
     </row>
-    <row r="167" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y167" s="1">
         <v>16500</v>
       </c>
@@ -48064,7 +48064,7 @@
         <v>39585497700</v>
       </c>
     </row>
-    <row r="168" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y168" s="1">
         <v>16600</v>
       </c>
@@ -48078,7 +48078,7 @@
         <v>41176162000</v>
       </c>
     </row>
-    <row r="169" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y169" s="1">
         <v>16700</v>
       </c>
@@ -48092,7 +48092,7 @@
         <v>41932748100</v>
       </c>
     </row>
-    <row r="170" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y170" s="1">
         <v>16800</v>
       </c>
@@ -48106,7 +48106,7 @@
         <v>37764747100</v>
       </c>
     </row>
-    <row r="171" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y171" s="1">
         <v>16900</v>
       </c>
@@ -48120,7 +48120,7 @@
         <v>46182894100</v>
       </c>
     </row>
-    <row r="172" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y172" s="1">
         <v>17000</v>
       </c>
@@ -48134,7 +48134,7 @@
         <v>45175558100</v>
       </c>
     </row>
-    <row r="173" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y173" s="1">
         <v>17100</v>
       </c>
@@ -48148,7 +48148,7 @@
         <v>45345909100</v>
       </c>
     </row>
-    <row r="174" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y174" s="1">
         <v>17200</v>
       </c>
@@ -48162,7 +48162,7 @@
         <v>44226654400</v>
       </c>
     </row>
-    <row r="175" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y175" s="1">
         <v>17300</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>48993716600</v>
       </c>
     </row>
-    <row r="176" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y176" s="1">
         <v>17400</v>
       </c>
@@ -48190,7 +48190,7 @@
         <v>51559116300</v>
       </c>
     </row>
-    <row r="177" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y177" s="1">
         <v>17500</v>
       </c>
@@ -48204,7 +48204,7 @@
         <v>51433793800</v>
       </c>
     </row>
-    <row r="178" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y178" s="1">
         <v>17600</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>46678410800</v>
       </c>
     </row>
-    <row r="179" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y179" s="1">
         <v>17700</v>
       </c>
@@ -48232,7 +48232,7 @@
         <v>53430075900</v>
       </c>
     </row>
-    <row r="180" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y180" s="1">
         <v>17800</v>
       </c>
@@ -48246,7 +48246,7 @@
         <v>52503252100</v>
       </c>
     </row>
-    <row r="181" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y181" s="1">
         <v>17900</v>
       </c>
@@ -48260,7 +48260,7 @@
         <v>54301561700</v>
       </c>
     </row>
-    <row r="182" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y182" s="1">
         <v>18000</v>
       </c>
@@ -48274,7 +48274,7 @@
         <v>50929541600</v>
       </c>
     </row>
-    <row r="183" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y183" s="1">
         <v>18100</v>
       </c>
@@ -48288,7 +48288,7 @@
         <v>58964484900</v>
       </c>
     </row>
-    <row r="184" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y184" s="1">
         <v>18200</v>
       </c>
@@ -48302,7 +48302,7 @@
         <v>60569688000</v>
       </c>
     </row>
-    <row r="185" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y185" s="1">
         <v>18300</v>
       </c>
@@ -48316,7 +48316,7 @@
         <v>66082144000</v>
       </c>
     </row>
-    <row r="186" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y186" s="1">
         <v>18400</v>
       </c>
@@ -48330,7 +48330,7 @@
         <v>55292830800</v>
       </c>
     </row>
-    <row r="187" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y187" s="1">
         <v>18500</v>
       </c>
@@ -48344,7 +48344,7 @@
         <v>63354259000</v>
       </c>
     </row>
-    <row r="188" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y188" s="1">
         <v>18600</v>
       </c>
@@ -48358,7 +48358,7 @@
         <v>61775352400</v>
       </c>
     </row>
-    <row r="189" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y189" s="1">
         <v>18700</v>
       </c>
@@ -48372,7 +48372,7 @@
         <v>64190222800</v>
       </c>
     </row>
-    <row r="190" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y190" s="1">
         <v>18800</v>
       </c>
@@ -48386,7 +48386,7 @@
         <v>59542457600</v>
       </c>
     </row>
-    <row r="191" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y191" s="1">
         <v>18900</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>69237732400</v>
       </c>
     </row>
-    <row r="192" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y192" s="1">
         <v>19000</v>
       </c>
@@ -48414,7 +48414,7 @@
         <v>66935460300</v>
       </c>
     </row>
-    <row r="193" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y193" s="1">
         <v>19100</v>
       </c>
@@ -48428,7 +48428,7 @@
         <v>70511301500</v>
       </c>
     </row>
-    <row r="194" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y194" s="1">
         <v>19200</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>62490885100</v>
       </c>
     </row>
-    <row r="195" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y195" s="1">
         <v>19300</v>
       </c>
@@ -48456,7 +48456,7 @@
         <v>75217538000</v>
       </c>
     </row>
-    <row r="196" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y196" s="1">
         <v>19400</v>
       </c>
@@ -48470,7 +48470,7 @@
         <v>73521908500</v>
       </c>
     </row>
-    <row r="197" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y197" s="1">
         <v>19500</v>
       </c>
@@ -48484,7 +48484,7 @@
         <v>77490945600</v>
       </c>
     </row>
-    <row r="198" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y198" s="1">
         <v>19600</v>
       </c>
@@ -48498,7 +48498,7 @@
         <v>68392564300</v>
       </c>
     </row>
-    <row r="199" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y199" s="1">
         <v>19700</v>
       </c>
@@ -48512,7 +48512,7 @@
         <v>81515268700</v>
       </c>
     </row>
-    <row r="200" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y200" s="1">
         <v>19800</v>
       </c>
@@ -48526,7 +48526,7 @@
         <v>77158595000</v>
       </c>
     </row>
-    <row r="201" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y201" s="1">
         <v>19900</v>
       </c>
@@ -48540,7 +48540,7 @@
         <v>85025599500</v>
       </c>
     </row>
-    <row r="202" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:28" x14ac:dyDescent="0.2">
       <c r="Y202" s="1">
         <v>20000</v>
       </c>
@@ -48586,11 +48586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05425C90-03A9-45DD-8249-DF023E7A352F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AR169" sqref="AR169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48600,22 +48600,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6865BE7-0442-4D71-A95A-8F7ABA10D8EC}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -48632,7 +48632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A19">cpu_onethread[calculation_time]/cpu[calculation_time]</f>
         <v>1.766244550550135</v>
@@ -48654,7 +48654,7 @@
         <v>0.89393939393939392</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.5046169317974036</v>
       </c>
@@ -48671,7 +48671,7 @@
         <v>1.0033726812816188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.9595940541764127</v>
       </c>
@@ -48688,7 +48688,7 @@
         <v>0.96424759871931698</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.065326046792042</v>
       </c>
@@ -48705,7 +48705,7 @@
         <v>1.0050355450236967</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5.1830658292626195</v>
       </c>
@@ -48722,7 +48722,7 @@
         <v>1.0080753701211305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.3337751252833092</v>
       </c>
@@ -48739,7 +48739,7 @@
         <v>1.0019115237575096</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.0736558708899913</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>1.0007617693362449</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.6007125020398991</v>
       </c>
@@ -48773,7 +48773,7 @@
         <v>1.0034347867569888</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.8154658388611633</v>
       </c>
@@ -48790,7 +48790,7 @@
         <v>0.99811999908292637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.3061831755039446</v>
       </c>
@@ -48807,7 +48807,7 @@
         <v>1.001577287066246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.6255356069565892</v>
       </c>
@@ -48824,7 +48824,7 @@
         <v>1.0012541286909877</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.7589382855401601</v>
       </c>
@@ -48841,7 +48841,7 @@
         <v>1.0025203871314634</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.6384710455435219</v>
       </c>
@@ -48858,7 +48858,7 @@
         <v>1.0008904719501335</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.9927106031072102</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>1.0003693431267335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.5217331525935949</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>1.0007151667167629</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.5349788659471715</v>
       </c>
@@ -48909,7 +48909,7 @@
         <v>1.0010428420705304</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.4712241354779731</v>
       </c>
@@ -48926,7 +48926,7 @@
         <v>0.89789086748800306</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5.9946747067045481</v>
       </c>
@@ -48943,7 +48943,7 @@
         <v>0.89571923853318969</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>28.453201945543483</v>
       </c>
@@ -48957,7 +48957,7 @@
         <v>0.93040819413531561</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>24.911627510322916</v>
       </c>
@@ -48971,7 +48971,7 @@
         <v>0.97876948995203794</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>26.911211801549044</v>
       </c>
@@ -48985,7 +48985,7 @@
         <v>0.95873696072451331</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>24.289541247053105</v>
       </c>
@@ -48999,7 +48999,7 @@
         <v>0.96377416055079801</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22.9046199874997</v>
       </c>
@@ -49013,7 +49013,7 @@
         <v>0.95484970689726856</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23.997728216936924</v>
       </c>
@@ -49027,7 +49027,7 @@
         <v>0.96185107062534103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>27.447611574354394</v>
       </c>
@@ -49041,7 +49041,7 @@
         <v>0.95501439465394267</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24.906693565455772</v>
       </c>
@@ -49055,7 +49055,7 @@
         <v>0.96289038448967057</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27.870137457302569</v>
       </c>
@@ -49069,7 +49069,7 @@
         <v>0.96533969914722728</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>24.697394848007328</v>
       </c>
@@ -49083,7 +49083,7 @@
         <v>0.9622542891160305</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27.608930650338312</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>0.96432626383601383</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>24.890491791358304</v>
       </c>
@@ -49111,7 +49111,7 @@
         <v>0.96373564315406046</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>24.154059494828413</v>
       </c>
@@ -49125,7 +49125,7 @@
         <v>0.95486939427215467</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>25.506880456952299</v>
       </c>
@@ -49139,7 +49139,7 @@
         <v>0.95603675907830055</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>27.276903618219698</v>
       </c>
@@ -49153,7 +49153,7 @@
         <v>0.95301343359502277</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>25.384473562954952</v>
       </c>
@@ -49167,7 +49167,7 @@
         <v>0.95905532905145052</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>28.709724122690655</v>
       </c>
@@ -49181,7 +49181,7 @@
         <v>0.960753149509469</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>24.686655834565016</v>
       </c>
@@ -49195,7 +49195,7 @@
         <v>0.96120087885931382</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>28.353953432365273</v>
       </c>
@@ -49209,7 +49209,7 @@
         <v>0.95488006191301666</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>25.30912467408529</v>
       </c>
@@ -49223,7 +49223,7 @@
         <v>0.96301769203686127</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>26.579919770826407</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v>0.95652599585233289</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>28.617983691869792</v>
       </c>
@@ -49251,7 +49251,7 @@
         <v>0.96144945681355087</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>32.517808964664113</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.95415672923181816</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>28.381028866781161</v>
       </c>
@@ -49279,7 +49279,7 @@
         <v>0.95630275137871967</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>33.035894730938871</v>
       </c>
@@ -49293,7 +49293,7 @@
         <v>0.95944536481822462</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>25.307699002596301</v>
       </c>
@@ -49307,7 +49307,7 @@
         <v>0.95818975497684844</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>28.048603275014251</v>
       </c>
@@ -49321,7 +49321,7 @@
         <v>0.95901885774522344</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>24.286942025025773</v>
       </c>
@@ -49335,7 +49335,7 @@
         <v>0.96109982380382497</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>23.423244751342679</v>
       </c>
@@ -49349,7 +49349,7 @@
         <v>0.95206267507163422</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>21.778101963497182</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>0.95831854523406212</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>25.479332741764306</v>
       </c>
@@ -49377,7 +49377,7 @@
         <v>0.95433058237752422</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>23.117921516278912</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>0.96045987871828387</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>26.295229432389746</v>
       </c>
@@ -49405,7 +49405,7 @@
         <v>0.95758484104514718</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>24.956475529722002</v>
       </c>
@@ -49419,7 +49419,7 @@
         <v>0.96188770736335627</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>26.940869510559455</v>
       </c>
@@ -49433,7 +49433,7 @@
         <v>0.95238796729736441</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>24.274007825697993</v>
       </c>
@@ -49447,7 +49447,7 @@
         <v>0.96456924303292579</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>23.706776893268945</v>
       </c>
@@ -49461,7 +49461,7 @@
         <v>0.96129968991972781</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>23.518971579365672</v>
       </c>
@@ -49475,7 +49475,7 @@
         <v>0.96619385727799922</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>25.47651428453673</v>
       </c>
@@ -49489,7 +49489,7 @@
         <v>0.95860622334421985</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>23.326282265528363</v>
       </c>
@@ -49503,7 +49503,7 @@
         <v>0.96490696404239307</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>27.568781487186151</v>
       </c>
@@ -49517,7 +49517,7 @@
         <v>0.95758687715013302</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>22.378054492593066</v>
       </c>
@@ -49531,7 +49531,7 @@
         <v>0.96264603743945354</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>27.239861123955745</v>
       </c>
@@ -49545,7 +49545,7 @@
         <v>0.95956591206795594</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>22.989216499271706</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>0.96511374942349359</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>24.180407640994542</v>
       </c>
@@ -49573,7 +49573,7 @@
         <v>0.95973771098428862</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>23.6683388699477</v>
       </c>
@@ -49587,7 +49587,7 @@
         <v>0.96835870971342553</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>27.12564071172002</v>
       </c>
@@ -49601,7 +49601,7 @@
         <v>0.96638392596746869</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>23.335625214762519</v>
       </c>
@@ -49615,7 +49615,7 @@
         <v>0.96759561230636781</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>27.474384432830306</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>0.96683262160831829</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>23.294284975420656</v>
       </c>
@@ -49643,7 +49643,7 @@
         <v>0.9694347212228448</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>27.11356031665937</v>
       </c>
@@ -49657,7 +49657,7 @@
         <v>0.96540290539573592</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>23.202514730436931</v>
       </c>
@@ -49671,7 +49671,7 @@
         <v>0.97071104192432922</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>23.691520929518095</v>
       </c>
@@ -49685,7 +49685,7 @@
         <v>0.96685364694541154</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>23.408689142920114</v>
       </c>
@@ -49699,7 +49699,7 @@
         <v>0.97508778402761465</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>27.000612345511222</v>
       </c>
@@ -49713,7 +49713,7 @@
         <v>0.97359898192370253</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>24.377696867810091</v>
       </c>
@@ -49727,7 +49727,7 @@
         <v>0.97661698329944324</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>28.47247833241909</v>
       </c>
@@ -49741,7 +49741,7 @@
         <v>0.9744589030013816</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>24.346110293331446</v>
       </c>
@@ -49755,7 +49755,7 @@
         <v>0.9750750991740077</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>27.480759052501423</v>
       </c>
@@ -49769,7 +49769,7 @@
         <v>0.97600680965095155</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>23.412308121964895</v>
       </c>
@@ -49783,7 +49783,7 @@
         <v>0.97751523255297024</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>24.885798919308879</v>
       </c>
@@ -49797,7 +49797,7 @@
         <v>0.97793273113417578</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>23.209668328133713</v>
       </c>
@@ -49811,7 +49811,7 @@
         <v>0.98116612571363226</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>26.209973476118133</v>
       </c>
@@ -49825,7 +49825,7 @@
         <v>0.97894201211566323</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>22.806968393394971</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0.97966303737272276</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>18.05533296262907</v>
       </c>
@@ -49853,7 +49853,7 @@
         <v>0.98072346208521211</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>22.772139436559279</v>
       </c>
@@ -49867,7 +49867,7 @@
         <v>0.98190731529819786</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>26.099469820376736</v>
       </c>
@@ -49881,7 +49881,7 @@
         <v>0.97995252624382401</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>22.512648739634162</v>
       </c>
@@ -49895,7 +49895,7 @@
         <v>0.98776599669521281</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>23.596882715566196</v>
       </c>
@@ -49909,7 +49909,7 @@
         <v>0.98393694517645502</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>22.200503869332575</v>
       </c>
@@ -49923,7 +49923,7 @@
         <v>0.98421470646199516</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>17.429440827817917</v>
       </c>
@@ -49937,7 +49937,7 @@
         <v>0.98440953871547998</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>23.395243829757607</v>
       </c>
@@ -49951,7 +49951,7 @@
         <v>0.98661374136058744</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>7.436775596012323</v>
       </c>
@@ -49962,7 +49962,7 @@
         <v>0.98453005475671584</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>7.4359120877285205</v>
       </c>
@@ -49973,7 +49973,7 @@
         <v>1.0095208782927201</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>7.2716597117808277</v>
       </c>
@@ -49984,7 +49984,7 @@
         <v>0.98729924256349577</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>7.2556201189085474</v>
       </c>
@@ -49995,7 +49995,7 @@
         <v>1.0080530370127996</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>7.0322291544159707</v>
       </c>
@@ -50006,7 +50006,7 @@
         <v>0.99328968342345958</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7.2359168572512047</v>
       </c>
@@ -50017,7 +50017,7 @@
         <v>0.98993248125539191</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>7.3230232147415171</v>
       </c>
@@ -50028,7 +50028,7 @@
         <v>0.99082050935647048</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>7.2397993797987867</v>
       </c>
@@ -50039,7 +50039,7 @@
         <v>1.0129018309609883</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>7.3125755497913341</v>
       </c>
@@ -50050,7 +50050,7 @@
         <v>0.99708338839131627</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>7.2241434936445872</v>
       </c>
@@ -50059,6 +50059,12 @@
       </c>
       <c r="E101">
         <v>1.0076863424294511</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(C2))</f>
+        <v>7.4148080350721122</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Результаты.xlsx
+++ b/Project/Результаты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadvergasov/workspace/ACS/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ACS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281132E-95F8-DE44-8B2D-9B744830FF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1D8DE-0F1D-4804-A89B-5A31ACB9D884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" activeTab="2" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{399BC83B-FFB2-40CA-BF3D-628FC2C29C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -199,7 +199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
     <dxf>
@@ -380,7 +380,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -752,7 +752,7 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -941,7 +941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -1006,7 +1006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -1034,7 +1034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1048,7 +1048,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1121,7 +1121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2480,7 +2480,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3191,7 +3191,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3228,7 +3228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -3347,7 +3347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3383,7 +3383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -3427,7 +3427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3457,7 +3457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3471,7 +3471,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3542,7 +3542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6101,7 +6101,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -7412,7 +7412,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7449,7 +7449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -7568,7 +7568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7604,7 +7604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -7646,7 +7646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7676,7 +7676,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7690,7 +7690,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7761,7 +7761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9120,7 +9120,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -9831,7 +9831,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9868,7 +9868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -9987,7 +9987,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10023,7 +10023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -10066,7 +10066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10096,7 +10096,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10110,7 +10110,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10181,7 +10181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11554,7 +11554,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11591,7 +11591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -11712,7 +11712,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11748,7 +11748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -11791,7 +11791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11821,7 +11821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11835,7 +11835,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11906,7 +11906,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13288,7 +13288,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13325,7 +13325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -13446,7 +13446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13482,7 +13482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -13525,7 +13525,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13555,7 +13555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13569,7 +13569,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14321,7 +14321,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14358,7 +14358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -14452,7 +14452,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14488,7 +14488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -14532,7 +14532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14562,7 +14562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14576,7 +14576,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15328,7 +15328,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15365,7 +15365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -15459,7 +15459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15495,7 +15495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -15539,7 +15539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15569,7 +15569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15583,7 +15583,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16335,7 +16335,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16372,7 +16372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -16466,7 +16466,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16502,7 +16502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -16546,7 +16546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16576,7 +16576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16590,7 +16590,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16653,7 +16653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17018,7 +17018,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -17207,7 +17207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -17273,7 +17273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -17315,7 +17315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17345,7 +17345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17359,7 +17359,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17421,7 +17421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17459,7 +17459,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -17622,7 +17622,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -17811,7 +17811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976803295"/>
@@ -17876,7 +17876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="976790815"/>
@@ -17918,7 +17918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17948,7 +17948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17962,7 +17962,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18061,7 +18061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18274,7 +18274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043797727"/>
@@ -18339,7 +18339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043796063"/>
@@ -18381,7 +18381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18411,7 +18411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18425,7 +18425,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18488,7 +18488,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19727,7 +19727,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -20348,7 +20348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957226943"/>
@@ -20413,7 +20413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957224447"/>
@@ -20456,7 +20456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20486,7 +20486,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20500,7 +20500,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20563,7 +20563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21792,7 +21792,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -22414,7 +22414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549327"/>
@@ -22473,7 +22473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1047549743"/>
@@ -22515,7 +22515,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22545,7 +22545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22559,7 +22559,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22626,7 +22626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23851,7 +23851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132622959"/>
@@ -23910,7 +23910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132640847"/>
@@ -23952,7 +23952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23982,7 +23982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23996,7 +23996,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24067,7 +24067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -25432,7 +25432,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -26146,7 +26146,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26183,7 +26183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -26302,7 +26302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26338,7 +26338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -26380,7 +26380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -26410,7 +26410,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26424,7 +26424,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -26500,7 +26500,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -27214,7 +27214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299346784"/>
@@ -27278,7 +27278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299348864"/>
@@ -27321,7 +27321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -27351,7 +27351,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -37118,9 +37118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -37158,7 +37158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -37264,7 +37264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -37420,47 +37420,47 @@
       <selection activeCell="Y2" sqref="Y2:AB202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -37516,7 +37516,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -37736,7 +37736,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>150</v>
       </c>
@@ -37846,7 +37846,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>200</v>
       </c>
@@ -37956,7 +37956,7 @@
         <v>180700</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -38066,7 +38066,7 @@
         <v>339300</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>300</v>
       </c>
@@ -38176,7 +38176,7 @@
         <v>749000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>350</v>
       </c>
@@ -38286,7 +38286,7 @@
         <v>1100700</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>400</v>
       </c>
@@ -38396,7 +38396,7 @@
         <v>1970600</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>450</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>3155100</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -38616,7 +38616,7 @@
         <v>4353500</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>550</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>5207000</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>600</v>
       </c>
@@ -38836,7 +38836,7 @@
         <v>8063500</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>650</v>
       </c>
@@ -38946,7 +38946,7 @@
         <v>8949700</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>700</v>
       </c>
@@ -39056,7 +39056,7 @@
         <v>13263200</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>750</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>14355100</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>800</v>
       </c>
@@ -39276,7 +39276,7 @@
         <v>19310000</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>850</v>
       </c>
@@ -39386,7 +39386,7 @@
         <v>24573900</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>900</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>25428000</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>950</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>19790200</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -39700,7 +39700,7 @@
         <v>25833900</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -39794,7 +39794,7 @@
         <v>28468000</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -39888,7 +39888,7 @@
         <v>37094300</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -39982,7 +39982,7 @@
         <v>37781200</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -40076,7 +40076,7 @@
         <v>48230700</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -40170,7 +40170,7 @@
         <v>57821100</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -40264,7 +40264,7 @@
         <v>61966300</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -40358,7 +40358,7 @@
         <v>63337100</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -40452,7 +40452,7 @@
         <v>79421200</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -40546,7 +40546,7 @@
         <v>77506600</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -40640,7 +40640,7 @@
         <v>99117600</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -40734,7 +40734,7 @@
         <v>97443600</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -40828,7 +40828,7 @@
         <v>121042300</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -40922,7 +40922,7 @@
         <v>137656100</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -41016,7 +41016,7 @@
         <v>145950100</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -41110,7 +41110,7 @@
         <v>143914500</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -41204,7 +41204,7 @@
         <v>175784200</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -41298,7 +41298,7 @@
         <v>167991000</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -41392,7 +41392,7 @@
         <v>207777700</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -41486,7 +41486,7 @@
         <v>201312300</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -41580,7 +41580,7 @@
         <v>241318500</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -41674,7 +41674,7 @@
         <v>269848000</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -41768,7 +41768,7 @@
         <v>274566900</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -41862,7 +41862,7 @@
         <v>271394800</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -41956,7 +41956,7 @@
         <v>327387800</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -42050,7 +42050,7 @@
         <v>308711300</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -42144,7 +42144,7 @@
         <v>381827700</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -42238,7 +42238,7 @@
         <v>359138400</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -42332,7 +42332,7 @@
         <v>435832300</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -42426,7 +42426,7 @@
         <v>470364400</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -42520,7 +42520,7 @@
         <v>496264500</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -42614,7 +42614,7 @@
         <v>466380300</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -42708,7 +42708,7 @@
         <v>566843400</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -42802,7 +42802,7 @@
         <v>512977600</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -42896,7 +42896,7 @@
         <v>631635700</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -42990,7 +42990,7 @@
         <v>585900000</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -43084,7 +43084,7 @@
         <v>714649800</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -43178,7 +43178,7 @@
         <v>753451400</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -43272,7 +43272,7 @@
         <v>792252000</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -43366,7 +43366,7 @@
         <v>729452200</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -43460,7 +43460,7 @@
         <v>886381100</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -43554,7 +43554,7 @@
         <v>792718700</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -43648,7 +43648,7 @@
         <v>976047800</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -43742,7 +43742,7 @@
         <v>898349400</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -43836,7 +43836,7 @@
         <v>1089309500</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -43930,7 +43930,7 @@
         <v>1131293100</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -44024,7 +44024,7 @@
         <v>1196202200</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -44118,7 +44118,7 @@
         <v>1094641400</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -44212,7 +44212,7 @@
         <v>1321327700</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -44306,7 +44306,7 @@
         <v>1178462200</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -44400,7 +44400,7 @@
         <v>1441607100</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -44494,7 +44494,7 @@
         <v>1305316400</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -44588,7 +44588,7 @@
         <v>1572638700</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -44682,7 +44682,7 @@
         <v>1618462600</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -44776,7 +44776,7 @@
         <v>1724269500</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -44870,7 +44870,7 @@
         <v>1554061600</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -44964,7 +44964,7 @@
         <v>1878473100</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -45058,7 +45058,7 @@
         <v>1656120300</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -45152,7 +45152,7 @@
         <v>2031459500</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -45246,7 +45246,7 @@
         <v>1811854200</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -45340,7 +45340,7 @@
         <v>2198072800</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -45434,7 +45434,7 @@
         <v>2237531100</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -45528,7 +45528,7 @@
         <v>2346310300</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -45622,7 +45622,7 @@
         <v>2081203700</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -45716,7 +45716,7 @@
         <v>2555721700</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -45810,7 +45810,7 @@
         <v>2257308200</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -45904,7 +45904,7 @@
         <v>2748480200</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -45998,7 +45998,7 @@
         <v>2496623500</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -46092,7 +46092,7 @@
         <v>3010164200</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -46186,7 +46186,7 @@
         <v>2995417500</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -46280,7 +46280,7 @@
         <v>3172186400</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -46374,7 +46374,7 @@
         <v>2875806300</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -46452,7 +46452,7 @@
         <v>3418138800</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -46530,7 +46530,7 @@
         <v>4520189900</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -46608,7 +46608,7 @@
         <v>3671197100</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -46686,7 +46686,7 @@
         <v>3369169900</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -46764,7 +46764,7 @@
         <v>3957784000</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -46842,7 +46842,7 @@
         <v>3915041700</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -46920,7 +46920,7 @@
         <v>4240580100</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -46998,7 +46998,7 @@
         <v>5519398100</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -47076,7 +47076,7 @@
         <v>4531197100</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -47154,7 +47154,7 @@
         <v>6190348100</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y103" s="1">
         <v>10100</v>
       </c>
@@ -47168,7 +47168,7 @@
         <v>7168659200</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y104" s="1">
         <v>10200</v>
       </c>
@@ -47182,7 +47182,7 @@
         <v>6807713000</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y105" s="1">
         <v>10300</v>
       </c>
@@ -47196,7 +47196,7 @@
         <v>5220762500</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y106" s="1">
         <v>10400</v>
       </c>
@@ -47210,7 +47210,7 @@
         <v>5021895100</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y107" s="1">
         <v>10500</v>
       </c>
@@ -47224,7 +47224,7 @@
         <v>5573705900</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y108" s="1">
         <v>10600</v>
       </c>
@@ -47238,7 +47238,7 @@
         <v>7988271700</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y109" s="1">
         <v>10700</v>
       </c>
@@ -47252,7 +47252,7 @@
         <v>6000266300</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y110" s="1">
         <v>10800</v>
       </c>
@@ -47266,7 +47266,7 @@
         <v>8660593300</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y111" s="1">
         <v>10900</v>
       </c>
@@ -47280,7 +47280,7 @@
         <v>6317493300</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y112" s="1">
         <v>11000</v>
       </c>
@@ -47294,7 +47294,7 @@
         <v>9296156000</v>
       </c>
     </row>
-    <row r="113" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y113" s="1">
         <v>11100</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>7354397800</v>
       </c>
     </row>
-    <row r="114" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y114" s="1">
         <v>11200</v>
       </c>
@@ -47322,7 +47322,7 @@
         <v>6300431900</v>
       </c>
     </row>
-    <row r="115" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y115" s="1">
         <v>11300</v>
       </c>
@@ -47336,7 +47336,7 @@
         <v>7696143600</v>
       </c>
     </row>
-    <row r="116" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y116" s="1">
         <v>11400</v>
       </c>
@@ -47350,7 +47350,7 @@
         <v>10361701100</v>
       </c>
     </row>
-    <row r="117" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y117" s="1">
         <v>11500</v>
       </c>
@@ -47364,7 +47364,7 @@
         <v>8316801700</v>
       </c>
     </row>
-    <row r="118" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y118" s="1">
         <v>11600</v>
       </c>
@@ -47378,7 +47378,7 @@
         <v>10754115900</v>
       </c>
     </row>
-    <row r="119" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y119" s="1">
         <v>11700</v>
       </c>
@@ -47392,7 +47392,7 @@
         <v>9296709000</v>
       </c>
     </row>
-    <row r="120" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y120" s="1">
         <v>11800</v>
       </c>
@@ -47406,7 +47406,7 @@
         <v>11549398500</v>
       </c>
     </row>
-    <row r="121" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y121" s="1">
         <v>11900</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>10198840400</v>
       </c>
     </row>
-    <row r="122" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y122" s="1">
         <v>12000</v>
       </c>
@@ -47434,7 +47434,7 @@
         <v>8038960100</v>
       </c>
     </row>
-    <row r="123" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y123" s="1">
         <v>12100</v>
       </c>
@@ -47448,7 +47448,7 @@
         <v>10899253000</v>
       </c>
     </row>
-    <row r="124" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y124" s="1">
         <v>12200</v>
       </c>
@@ -47462,7 +47462,7 @@
         <v>13827617000</v>
       </c>
     </row>
-    <row r="125" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y125" s="1">
         <v>12300</v>
       </c>
@@ -47476,7 +47476,7 @@
         <v>13217014200</v>
       </c>
     </row>
-    <row r="126" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y126" s="1">
         <v>12400</v>
       </c>
@@ -47490,7 +47490,7 @@
         <v>13884708000</v>
       </c>
     </row>
-    <row r="127" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y127" s="1">
         <v>12500</v>
       </c>
@@ -47504,7 +47504,7 @@
         <v>12301603600</v>
       </c>
     </row>
-    <row r="128" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y128" s="1">
         <v>12600</v>
       </c>
@@ -47518,7 +47518,7 @@
         <v>14846397000</v>
       </c>
     </row>
-    <row r="129" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y129" s="1">
         <v>12700</v>
       </c>
@@ -47532,7 +47532,7 @@
         <v>13766027100</v>
       </c>
     </row>
-    <row r="130" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y130" s="1">
         <v>12800</v>
       </c>
@@ -47546,7 +47546,7 @@
         <v>11685520700</v>
       </c>
     </row>
-    <row r="131" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y131" s="1">
         <v>12900</v>
       </c>
@@ -47560,7 +47560,7 @@
         <v>14767429200</v>
       </c>
     </row>
-    <row r="132" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y132" s="1">
         <v>13000</v>
       </c>
@@ -47574,7 +47574,7 @@
         <v>18595671100</v>
       </c>
     </row>
-    <row r="133" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y133" s="1">
         <v>13100</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>15856786700</v>
       </c>
     </row>
-    <row r="134" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y134" s="1">
         <v>13200</v>
       </c>
@@ -47602,7 +47602,7 @@
         <v>17622611800</v>
       </c>
     </row>
-    <row r="135" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y135" s="1">
         <v>13300</v>
       </c>
@@ -47616,7 +47616,7 @@
         <v>16090161200</v>
       </c>
     </row>
-    <row r="136" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y136" s="1">
         <v>13400</v>
       </c>
@@ -47630,7 +47630,7 @@
         <v>20253420900</v>
       </c>
     </row>
-    <row r="137" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y137" s="1">
         <v>13500</v>
       </c>
@@ -47644,7 +47644,7 @@
         <v>17949088800</v>
       </c>
     </row>
-    <row r="138" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y138" s="1">
         <v>13600</v>
       </c>
@@ -47658,7 +47658,7 @@
         <v>18601060500</v>
       </c>
     </row>
-    <row r="139" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y139" s="1">
         <v>13700</v>
       </c>
@@ -47672,7 +47672,7 @@
         <v>18885847700</v>
       </c>
     </row>
-    <row r="140" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y140" s="1">
         <v>13800</v>
       </c>
@@ -47686,7 +47686,7 @@
         <v>21166469700</v>
       </c>
     </row>
-    <row r="141" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y141" s="1">
         <v>13900</v>
       </c>
@@ -47700,7 +47700,7 @@
         <v>21000451500</v>
       </c>
     </row>
-    <row r="142" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y142" s="1">
         <v>14000</v>
       </c>
@@ -47714,7 +47714,7 @@
         <v>21081898500</v>
       </c>
     </row>
-    <row r="143" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y143" s="1">
         <v>14100</v>
       </c>
@@ -47728,7 +47728,7 @@
         <v>21376747900</v>
       </c>
     </row>
-    <row r="144" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y144" s="1">
         <v>14200</v>
       </c>
@@ -47742,7 +47742,7 @@
         <v>23600780400</v>
       </c>
     </row>
-    <row r="145" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="145" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y145" s="1">
         <v>14300</v>
       </c>
@@ -47756,7 +47756,7 @@
         <v>22492407500</v>
       </c>
     </row>
-    <row r="146" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="146" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y146" s="1">
         <v>14400</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>23520096700</v>
       </c>
     </row>
-    <row r="147" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="147" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y147" s="1">
         <v>14500</v>
       </c>
@@ -47784,7 +47784,7 @@
         <v>24094664700</v>
       </c>
     </row>
-    <row r="148" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="148" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y148" s="1">
         <v>14600</v>
       </c>
@@ -47798,7 +47798,7 @@
         <v>25992474100</v>
       </c>
     </row>
-    <row r="149" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="149" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y149" s="1">
         <v>14700</v>
       </c>
@@ -47812,7 +47812,7 @@
         <v>25525197400</v>
       </c>
     </row>
-    <row r="150" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="150" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y150" s="1">
         <v>14800</v>
       </c>
@@ -47826,7 +47826,7 @@
         <v>26818156000</v>
       </c>
     </row>
-    <row r="151" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="151" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y151" s="1">
         <v>14900</v>
       </c>
@@ -47840,7 +47840,7 @@
         <v>29876575000</v>
       </c>
     </row>
-    <row r="152" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="152" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y152" s="1">
         <v>15000</v>
       </c>
@@ -47854,7 +47854,7 @@
         <v>28829077300</v>
       </c>
     </row>
-    <row r="153" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="153" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y153" s="1">
         <v>15100</v>
       </c>
@@ -47868,7 +47868,7 @@
         <v>28496336600</v>
       </c>
     </row>
-    <row r="154" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="154" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y154" s="1">
         <v>15200</v>
       </c>
@@ -47882,7 +47882,7 @@
         <v>27425657000</v>
       </c>
     </row>
-    <row r="155" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="155" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y155" s="1">
         <v>15300</v>
       </c>
@@ -47896,7 +47896,7 @@
         <v>31251082400</v>
       </c>
     </row>
-    <row r="156" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="156" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y156" s="1">
         <v>15400</v>
       </c>
@@ -47910,7 +47910,7 @@
         <v>32498587600</v>
       </c>
     </row>
-    <row r="157" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y157" s="1">
         <v>15500</v>
       </c>
@@ -47924,7 +47924,7 @@
         <v>31619444600</v>
       </c>
     </row>
-    <row r="158" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="158" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y158" s="1">
         <v>15600</v>
       </c>
@@ -47938,7 +47938,7 @@
         <v>31568162700</v>
       </c>
     </row>
-    <row r="159" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="159" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y159" s="1">
         <v>15700</v>
       </c>
@@ -47952,7 +47952,7 @@
         <v>33351129100</v>
       </c>
     </row>
-    <row r="160" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="160" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y160" s="1">
         <v>15800</v>
       </c>
@@ -47966,7 +47966,7 @@
         <v>36628476100</v>
       </c>
     </row>
-    <row r="161" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="161" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y161" s="1">
         <v>15900</v>
       </c>
@@ -47980,7 +47980,7 @@
         <v>36033401600</v>
       </c>
     </row>
-    <row r="162" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="162" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y162" s="1">
         <v>16000</v>
       </c>
@@ -47994,7 +47994,7 @@
         <v>33026093500</v>
       </c>
     </row>
-    <row r="163" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="163" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y163" s="1">
         <v>16100</v>
       </c>
@@ -48008,7 +48008,7 @@
         <v>37037741200</v>
       </c>
     </row>
-    <row r="164" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="164" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y164" s="1">
         <v>16200</v>
       </c>
@@ -48022,7 +48022,7 @@
         <v>37781790100</v>
       </c>
     </row>
-    <row r="165" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="165" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y165" s="1">
         <v>16300</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>38234754300</v>
       </c>
     </row>
-    <row r="166" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="166" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y166" s="1">
         <v>16400</v>
       </c>
@@ -48050,7 +48050,7 @@
         <v>37180357400</v>
       </c>
     </row>
-    <row r="167" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="167" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y167" s="1">
         <v>16500</v>
       </c>
@@ -48064,7 +48064,7 @@
         <v>39585497700</v>
       </c>
     </row>
-    <row r="168" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="168" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y168" s="1">
         <v>16600</v>
       </c>
@@ -48078,7 +48078,7 @@
         <v>41176162000</v>
       </c>
     </row>
-    <row r="169" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="169" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y169" s="1">
         <v>16700</v>
       </c>
@@ -48092,7 +48092,7 @@
         <v>41932748100</v>
       </c>
     </row>
-    <row r="170" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="170" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y170" s="1">
         <v>16800</v>
       </c>
@@ -48106,7 +48106,7 @@
         <v>37764747100</v>
       </c>
     </row>
-    <row r="171" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="171" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y171" s="1">
         <v>16900</v>
       </c>
@@ -48120,7 +48120,7 @@
         <v>46182894100</v>
       </c>
     </row>
-    <row r="172" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="172" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y172" s="1">
         <v>17000</v>
       </c>
@@ -48134,7 +48134,7 @@
         <v>45175558100</v>
       </c>
     </row>
-    <row r="173" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="173" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y173" s="1">
         <v>17100</v>
       </c>
@@ -48148,7 +48148,7 @@
         <v>45345909100</v>
       </c>
     </row>
-    <row r="174" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="174" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y174" s="1">
         <v>17200</v>
       </c>
@@ -48162,7 +48162,7 @@
         <v>44226654400</v>
       </c>
     </row>
-    <row r="175" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="175" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y175" s="1">
         <v>17300</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>48993716600</v>
       </c>
     </row>
-    <row r="176" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="176" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y176" s="1">
         <v>17400</v>
       </c>
@@ -48190,7 +48190,7 @@
         <v>51559116300</v>
       </c>
     </row>
-    <row r="177" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="177" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y177" s="1">
         <v>17500</v>
       </c>
@@ -48204,7 +48204,7 @@
         <v>51433793800</v>
       </c>
     </row>
-    <row r="178" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="178" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y178" s="1">
         <v>17600</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>46678410800</v>
       </c>
     </row>
-    <row r="179" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="179" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y179" s="1">
         <v>17700</v>
       </c>
@@ -48232,7 +48232,7 @@
         <v>53430075900</v>
       </c>
     </row>
-    <row r="180" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y180" s="1">
         <v>17800</v>
       </c>
@@ -48246,7 +48246,7 @@
         <v>52503252100</v>
       </c>
     </row>
-    <row r="181" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="181" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y181" s="1">
         <v>17900</v>
       </c>
@@ -48260,7 +48260,7 @@
         <v>54301561700</v>
       </c>
     </row>
-    <row r="182" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="182" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y182" s="1">
         <v>18000</v>
       </c>
@@ -48274,7 +48274,7 @@
         <v>50929541600</v>
       </c>
     </row>
-    <row r="183" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="183" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y183" s="1">
         <v>18100</v>
       </c>
@@ -48288,7 +48288,7 @@
         <v>58964484900</v>
       </c>
     </row>
-    <row r="184" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="184" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y184" s="1">
         <v>18200</v>
       </c>
@@ -48302,7 +48302,7 @@
         <v>60569688000</v>
       </c>
     </row>
-    <row r="185" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="185" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y185" s="1">
         <v>18300</v>
       </c>
@@ -48316,7 +48316,7 @@
         <v>66082144000</v>
       </c>
     </row>
-    <row r="186" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="186" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y186" s="1">
         <v>18400</v>
       </c>
@@ -48330,7 +48330,7 @@
         <v>55292830800</v>
       </c>
     </row>
-    <row r="187" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="187" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y187" s="1">
         <v>18500</v>
       </c>
@@ -48344,7 +48344,7 @@
         <v>63354259000</v>
       </c>
     </row>
-    <row r="188" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y188" s="1">
         <v>18600</v>
       </c>
@@ -48358,7 +48358,7 @@
         <v>61775352400</v>
       </c>
     </row>
-    <row r="189" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="189" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y189" s="1">
         <v>18700</v>
       </c>
@@ -48372,7 +48372,7 @@
         <v>64190222800</v>
       </c>
     </row>
-    <row r="190" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="190" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y190" s="1">
         <v>18800</v>
       </c>
@@ -48386,7 +48386,7 @@
         <v>59542457600</v>
       </c>
     </row>
-    <row r="191" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="191" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y191" s="1">
         <v>18900</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>69237732400</v>
       </c>
     </row>
-    <row r="192" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="192" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y192" s="1">
         <v>19000</v>
       </c>
@@ -48414,7 +48414,7 @@
         <v>66935460300</v>
       </c>
     </row>
-    <row r="193" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="193" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y193" s="1">
         <v>19100</v>
       </c>
@@ -48428,7 +48428,7 @@
         <v>70511301500</v>
       </c>
     </row>
-    <row r="194" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="194" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y194" s="1">
         <v>19200</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>62490885100</v>
       </c>
     </row>
-    <row r="195" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="195" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y195" s="1">
         <v>19300</v>
       </c>
@@ -48456,7 +48456,7 @@
         <v>75217538000</v>
       </c>
     </row>
-    <row r="196" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="196" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y196" s="1">
         <v>19400</v>
       </c>
@@ -48470,7 +48470,7 @@
         <v>73521908500</v>
       </c>
     </row>
-    <row r="197" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="197" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y197" s="1">
         <v>19500</v>
       </c>
@@ -48484,7 +48484,7 @@
         <v>77490945600</v>
       </c>
     </row>
-    <row r="198" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="198" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y198" s="1">
         <v>19600</v>
       </c>
@@ -48498,7 +48498,7 @@
         <v>68392564300</v>
       </c>
     </row>
-    <row r="199" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="199" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y199" s="1">
         <v>19700</v>
       </c>
@@ -48512,7 +48512,7 @@
         <v>81515268700</v>
       </c>
     </row>
-    <row r="200" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="200" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y200" s="1">
         <v>19800</v>
       </c>
@@ -48526,7 +48526,7 @@
         <v>77158595000</v>
       </c>
     </row>
-    <row r="201" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="201" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y201" s="1">
         <v>19900</v>
       </c>
@@ -48540,7 +48540,7 @@
         <v>85025599500</v>
       </c>
     </row>
-    <row r="202" spans="25:28" x14ac:dyDescent="0.2">
+    <row r="202" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y202" s="1">
         <v>20000</v>
       </c>
@@ -48586,11 +48586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05425C90-03A9-45DD-8249-DF023E7A352F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR169" sqref="AR169"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48602,20 +48602,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6865BE7-0442-4D71-A95A-8F7ABA10D8EC}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -48632,7 +48632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A19">cpu_onethread[calculation_time]/cpu[calculation_time]</f>
         <v>1.766244550550135</v>
@@ -48654,7 +48654,7 @@
         <v>0.89393939393939392</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.5046169317974036</v>
       </c>
@@ -48671,7 +48671,7 @@
         <v>1.0033726812816188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.9595940541764127</v>
       </c>
@@ -48688,7 +48688,7 @@
         <v>0.96424759871931698</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.065326046792042</v>
       </c>
@@ -48705,7 +48705,7 @@
         <v>1.0050355450236967</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.1830658292626195</v>
       </c>
@@ -48722,7 +48722,7 @@
         <v>1.0080753701211305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.3337751252833092</v>
       </c>
@@ -48739,7 +48739,7 @@
         <v>1.0019115237575096</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.0736558708899913</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>1.0007617693362449</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.6007125020398991</v>
       </c>
@@ -48773,7 +48773,7 @@
         <v>1.0034347867569888</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.8154658388611633</v>
       </c>
@@ -48790,7 +48790,7 @@
         <v>0.99811999908292637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.3061831755039446</v>
       </c>
@@ -48807,7 +48807,7 @@
         <v>1.001577287066246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.6255356069565892</v>
       </c>
@@ -48824,7 +48824,7 @@
         <v>1.0012541286909877</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.7589382855401601</v>
       </c>
@@ -48841,7 +48841,7 @@
         <v>1.0025203871314634</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.6384710455435219</v>
       </c>
@@ -48858,7 +48858,7 @@
         <v>1.0008904719501335</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.9927106031072102</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>1.0003693431267335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.5217331525935949</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>1.0007151667167629</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.5349788659471715</v>
       </c>
@@ -48909,7 +48909,7 @@
         <v>1.0010428420705304</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.4712241354779731</v>
       </c>
@@ -48926,7 +48926,7 @@
         <v>0.89789086748800306</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.9946747067045481</v>
       </c>
@@ -48943,7 +48943,7 @@
         <v>0.89571923853318969</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>28.453201945543483</v>
       </c>
@@ -48957,7 +48957,7 @@
         <v>0.93040819413531561</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>24.911627510322916</v>
       </c>
@@ -48971,7 +48971,7 @@
         <v>0.97876948995203794</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>26.911211801549044</v>
       </c>
@@ -48985,7 +48985,7 @@
         <v>0.95873696072451331</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>24.289541247053105</v>
       </c>
@@ -48999,7 +48999,7 @@
         <v>0.96377416055079801</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22.9046199874997</v>
       </c>
@@ -49013,7 +49013,7 @@
         <v>0.95484970689726856</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23.997728216936924</v>
       </c>
@@ -49027,7 +49027,7 @@
         <v>0.96185107062534103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>27.447611574354394</v>
       </c>
@@ -49041,7 +49041,7 @@
         <v>0.95501439465394267</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24.906693565455772</v>
       </c>
@@ -49055,7 +49055,7 @@
         <v>0.96289038448967057</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27.870137457302569</v>
       </c>
@@ -49069,7 +49069,7 @@
         <v>0.96533969914722728</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>24.697394848007328</v>
       </c>
@@ -49083,7 +49083,7 @@
         <v>0.9622542891160305</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27.608930650338312</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>0.96432626383601383</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>24.890491791358304</v>
       </c>
@@ -49111,7 +49111,7 @@
         <v>0.96373564315406046</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>24.154059494828413</v>
       </c>
@@ -49125,7 +49125,7 @@
         <v>0.95486939427215467</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>25.506880456952299</v>
       </c>
@@ -49139,7 +49139,7 @@
         <v>0.95603675907830055</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>27.276903618219698</v>
       </c>
@@ -49153,7 +49153,7 @@
         <v>0.95301343359502277</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>25.384473562954952</v>
       </c>
@@ -49167,7 +49167,7 @@
         <v>0.95905532905145052</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>28.709724122690655</v>
       </c>
@@ -49181,7 +49181,7 @@
         <v>0.960753149509469</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>24.686655834565016</v>
       </c>
@@ -49195,7 +49195,7 @@
         <v>0.96120087885931382</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>28.353953432365273</v>
       </c>
@@ -49209,7 +49209,7 @@
         <v>0.95488006191301666</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>25.30912467408529</v>
       </c>
@@ -49223,7 +49223,7 @@
         <v>0.96301769203686127</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>26.579919770826407</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v>0.95652599585233289</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>28.617983691869792</v>
       </c>
@@ -49251,7 +49251,7 @@
         <v>0.96144945681355087</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>32.517808964664113</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.95415672923181816</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>28.381028866781161</v>
       </c>
@@ -49279,7 +49279,7 @@
         <v>0.95630275137871967</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>33.035894730938871</v>
       </c>
@@ -49293,7 +49293,7 @@
         <v>0.95944536481822462</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>25.307699002596301</v>
       </c>
@@ -49307,7 +49307,7 @@
         <v>0.95818975497684844</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>28.048603275014251</v>
       </c>
@@ -49321,7 +49321,7 @@
         <v>0.95901885774522344</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>24.286942025025773</v>
       </c>
@@ -49335,7 +49335,7 @@
         <v>0.96109982380382497</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>23.423244751342679</v>
       </c>
@@ -49349,7 +49349,7 @@
         <v>0.95206267507163422</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>21.778101963497182</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>0.95831854523406212</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>25.479332741764306</v>
       </c>
@@ -49377,7 +49377,7 @@
         <v>0.95433058237752422</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>23.117921516278912</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>0.96045987871828387</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>26.295229432389746</v>
       </c>
@@ -49405,7 +49405,7 @@
         <v>0.95758484104514718</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>24.956475529722002</v>
       </c>
@@ -49419,7 +49419,7 @@
         <v>0.96188770736335627</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>26.940869510559455</v>
       </c>
@@ -49433,7 +49433,7 @@
         <v>0.95238796729736441</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>24.274007825697993</v>
       </c>
@@ -49447,7 +49447,7 @@
         <v>0.96456924303292579</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>23.706776893268945</v>
       </c>
@@ -49461,7 +49461,7 @@
         <v>0.96129968991972781</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>23.518971579365672</v>
       </c>
@@ -49475,7 +49475,7 @@
         <v>0.96619385727799922</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>25.47651428453673</v>
       </c>
@@ -49489,7 +49489,7 @@
         <v>0.95860622334421985</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>23.326282265528363</v>
       </c>
@@ -49503,7 +49503,7 @@
         <v>0.96490696404239307</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>27.568781487186151</v>
       </c>
@@ -49517,7 +49517,7 @@
         <v>0.95758687715013302</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>22.378054492593066</v>
       </c>
@@ -49531,7 +49531,7 @@
         <v>0.96264603743945354</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>27.239861123955745</v>
       </c>
@@ -49545,7 +49545,7 @@
         <v>0.95956591206795594</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>22.989216499271706</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>0.96511374942349359</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>24.180407640994542</v>
       </c>
@@ -49573,7 +49573,7 @@
         <v>0.95973771098428862</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>23.6683388699477</v>
       </c>
@@ -49587,7 +49587,7 @@
         <v>0.96835870971342553</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>27.12564071172002</v>
       </c>
@@ -49601,7 +49601,7 @@
         <v>0.96638392596746869</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>23.335625214762519</v>
       </c>
@@ -49615,7 +49615,7 @@
         <v>0.96759561230636781</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>27.474384432830306</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>0.96683262160831829</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>23.294284975420656</v>
       </c>
@@ -49643,7 +49643,7 @@
         <v>0.9694347212228448</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>27.11356031665937</v>
       </c>
@@ -49657,7 +49657,7 @@
         <v>0.96540290539573592</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>23.202514730436931</v>
       </c>
@@ -49671,7 +49671,7 @@
         <v>0.97071104192432922</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>23.691520929518095</v>
       </c>
@@ -49685,7 +49685,7 @@
         <v>0.96685364694541154</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>23.408689142920114</v>
       </c>
@@ -49699,7 +49699,7 @@
         <v>0.97508778402761465</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>27.000612345511222</v>
       </c>
@@ -49713,7 +49713,7 @@
         <v>0.97359898192370253</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>24.377696867810091</v>
       </c>
@@ -49727,7 +49727,7 @@
         <v>0.97661698329944324</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>28.47247833241909</v>
       </c>
@@ -49741,7 +49741,7 @@
         <v>0.9744589030013816</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>24.346110293331446</v>
       </c>
@@ -49755,7 +49755,7 @@
         <v>0.9750750991740077</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>27.480759052501423</v>
       </c>
@@ -49769,7 +49769,7 @@
         <v>0.97600680965095155</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>23.412308121964895</v>
       </c>
@@ -49783,7 +49783,7 @@
         <v>0.97751523255297024</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>24.885798919308879</v>
       </c>
@@ -49797,7 +49797,7 @@
         <v>0.97793273113417578</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>23.209668328133713</v>
       </c>
@@ -49811,7 +49811,7 @@
         <v>0.98116612571363226</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>26.209973476118133</v>
       </c>
@@ -49825,7 +49825,7 @@
         <v>0.97894201211566323</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>22.806968393394971</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0.97966303737272276</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>18.05533296262907</v>
       </c>
@@ -49853,7 +49853,7 @@
         <v>0.98072346208521211</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>22.772139436559279</v>
       </c>
@@ -49867,7 +49867,7 @@
         <v>0.98190731529819786</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>26.099469820376736</v>
       </c>
@@ -49881,7 +49881,7 @@
         <v>0.97995252624382401</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>22.512648739634162</v>
       </c>
@@ -49895,7 +49895,7 @@
         <v>0.98776599669521281</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>23.596882715566196</v>
       </c>
@@ -49909,7 +49909,7 @@
         <v>0.98393694517645502</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>22.200503869332575</v>
       </c>
@@ -49923,7 +49923,7 @@
         <v>0.98421470646199516</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>17.429440827817917</v>
       </c>
@@ -49937,7 +49937,7 @@
         <v>0.98440953871547998</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>23.395243829757607</v>
       </c>
@@ -49951,7 +49951,7 @@
         <v>0.98661374136058744</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>7.436775596012323</v>
       </c>
@@ -49962,7 +49962,7 @@
         <v>0.98453005475671584</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>7.4359120877285205</v>
       </c>
@@ -49973,7 +49973,7 @@
         <v>1.0095208782927201</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>7.2716597117808277</v>
       </c>
@@ -49984,7 +49984,7 @@
         <v>0.98729924256349577</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>7.2556201189085474</v>
       </c>
@@ -49995,7 +49995,7 @@
         <v>1.0080530370127996</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>7.0322291544159707</v>
       </c>
@@ -50006,7 +50006,7 @@
         <v>0.99328968342345958</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>7.2359168572512047</v>
       </c>
@@ -50017,7 +50017,7 @@
         <v>0.98993248125539191</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>7.3230232147415171</v>
       </c>
@@ -50028,7 +50028,7 @@
         <v>0.99082050935647048</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>7.2397993797987867</v>
       </c>
@@ -50039,7 +50039,7 @@
         <v>1.0129018309609883</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>7.3125755497913341</v>
       </c>
@@ -50050,7 +50050,7 @@
         <v>0.99708338839131627</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>7.2241434936445872</v>
       </c>
@@ -50061,7 +50061,7 @@
         <v>1.0076863424294511</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>AVERAGE(_xlfn.ANCHORARRAY(C2))</f>
         <v>7.4148080350721122</v>
